--- a/Marketing/trojans.roomme.xlsx
+++ b/Marketing/trojans.roomme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B170"/>
+  <dimension ref="A1:B321"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>caden.lowder</t>
+          <t>rileyssager</t>
         </is>
       </c>
       <c r="B2" t="b">
@@ -458,7 +458,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>kalanihill98</t>
+          <t>celiamvphee</t>
         </is>
       </c>
       <c r="B3" t="b">
@@ -468,7 +468,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ligiarosser</t>
+          <t>sam__doane</t>
         </is>
       </c>
       <c r="B4" t="b">
@@ -478,7 +478,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ivanarag11</t>
+          <t>kimonsplash</t>
         </is>
       </c>
       <c r="B5" t="b">
@@ -488,7 +488,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>daniyarballin</t>
+          <t>scottrykert</t>
         </is>
       </c>
       <c r="B6" t="b">
@@ -498,7 +498,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>kevinnrome</t>
+          <t>sophie0915_zhang</t>
         </is>
       </c>
       <c r="B7" t="b">
@@ -508,7 +508,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>austin_boyle18</t>
+          <t>yang_yumo424</t>
         </is>
       </c>
       <c r="B8" t="b">
@@ -518,7 +518,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>henry_deckard</t>
+          <t>livv.elise</t>
         </is>
       </c>
       <c r="B9" t="b">
@@ -528,7 +528,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ruby_mara_269</t>
+          <t>exoticgotblocks</t>
         </is>
       </c>
       <c r="B10" t="b">
@@ -538,7 +538,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>nickcyrusa</t>
+          <t>jessbrady29</t>
         </is>
       </c>
       <c r="B11" t="b">
@@ -548,7 +548,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>gabriel.james.johnson</t>
+          <t>zeshan.ali.khan</t>
         </is>
       </c>
       <c r="B12" t="b">
@@ -558,7 +558,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>pame_lucasss</t>
+          <t>kylie_reese18</t>
         </is>
       </c>
       <c r="B13" t="b">
@@ -568,7 +568,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>montreuxapieds</t>
+          <t>yasmeena.atia</t>
         </is>
       </c>
       <c r="B14" t="b">
@@ -578,7 +578,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>chstudebaker100__18</t>
+          <t>213_.alcla</t>
         </is>
       </c>
       <c r="B15" t="b">
@@ -588,7 +588,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>emiliano_card</t>
+          <t>lpetro</t>
         </is>
       </c>
       <c r="B16" t="b">
@@ -598,7 +598,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>justin_sunwoo</t>
+          <t>declan.larson</t>
         </is>
       </c>
       <c r="B17" t="b">
@@ -608,7 +608,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>leonardo_dassatti</t>
+          <t>margaret.luwena</t>
         </is>
       </c>
       <c r="B18" t="b">
@@ -618,7 +618,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>isha.aradhya_</t>
+          <t>11xtristanposner</t>
         </is>
       </c>
       <c r="B19" t="b">
@@ -628,7 +628,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>zjearbear</t>
+          <t>ryan_domnic</t>
         </is>
       </c>
       <c r="B20" t="b">
@@ -638,7 +638,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>dhruva567</t>
+          <t>rhomalqueen</t>
         </is>
       </c>
       <c r="B21" t="b">
@@ -648,7 +648,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>hyperlunion</t>
+          <t>_d_i_p_z_</t>
         </is>
       </c>
       <c r="B22" t="b">
@@ -658,7 +658,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>arnav_dhingra</t>
+          <t>m1no1_u</t>
         </is>
       </c>
       <c r="B23" t="b">
@@ -668,7 +668,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>umiami.2028</t>
+          <t>siepstein</t>
         </is>
       </c>
       <c r="B24" t="b">
@@ -678,7 +678,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>olivia_willey_</t>
+          <t>ayanmaheshwari.01</t>
         </is>
       </c>
       <c r="B25" t="b">
@@ -688,7 +688,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>_d_i_p_z_</t>
+          <t>isabellaa.chen</t>
         </is>
       </c>
       <c r="B26" t="b">
@@ -698,7 +698,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>rileyssager</t>
+          <t>dillon_cogley</t>
         </is>
       </c>
       <c r="B27" t="b">
@@ -708,7 +708,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>_wi.eee.ng_</t>
+          <t>frenchfriez6</t>
         </is>
       </c>
       <c r="B28" t="b">
@@ -718,7 +718,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>emily.nlsnn</t>
+          <t>shaangro</t>
         </is>
       </c>
       <c r="B29" t="b">
@@ -728,7 +728,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>danielalhernan</t>
+          <t>mayaalewiss</t>
         </is>
       </c>
       <c r="B30" t="b">
@@ -738,7 +738,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>nick_arjoma</t>
+          <t>annieyuujr</t>
         </is>
       </c>
       <c r="B31" t="b">
@@ -748,7 +748,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>1971.tas</t>
+          <t>claragrenning</t>
         </is>
       </c>
       <c r="B32" t="b">
@@ -758,7 +758,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>gabbi.sky</t>
+          <t>joshie_3005</t>
         </is>
       </c>
       <c r="B33" t="b">
@@ -768,7 +768,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>goldieahj122</t>
+          <t>keira_nrl</t>
         </is>
       </c>
       <c r="B34" t="b">
@@ -778,7 +778,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>fos.falc</t>
+          <t>_adalio</t>
         </is>
       </c>
       <c r="B35" t="b">
@@ -788,7 +788,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ximenaancerr</t>
+          <t>diego.casillas_</t>
         </is>
       </c>
       <c r="B36" t="b">
@@ -798,7 +798,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>camillecoldwell</t>
+          <t>laurenshehadey</t>
         </is>
       </c>
       <c r="B37" t="b">
@@ -808,7 +808,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>br3ndenm</t>
+          <t>nata_lie8635</t>
         </is>
       </c>
       <c r="B38" t="b">
@@ -818,7 +818,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>yogiyan2023</t>
+          <t>meilynn_poma</t>
         </is>
       </c>
       <c r="B39" t="b">
@@ -828,7 +828,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>r_rayyyyyy</t>
+          <t>surabinama</t>
         </is>
       </c>
       <c r="B40" t="b">
@@ -838,7 +838,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>bjmoonn</t>
+          <t>sofi_vigevaaa</t>
         </is>
       </c>
       <c r="B41" t="b">
@@ -848,7 +848,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>michaela.banta</t>
+          <t>the.golden.arlo</t>
         </is>
       </c>
       <c r="B42" t="b">
@@ -858,7 +858,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>shaleez.r</t>
+          <t>markreshwan</t>
         </is>
       </c>
       <c r="B43" t="b">
@@ -868,7 +868,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>sharim223</t>
+          <t>samiyah.janaan</t>
         </is>
       </c>
       <c r="B44" t="b">
@@ -878,7 +878,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>11xtristanposner</t>
+          <t>hurstella_contemporary_art</t>
         </is>
       </c>
       <c r="B45" t="b">
@@ -888,7 +888,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>evanozgener</t>
+          <t>__queenbee1</t>
         </is>
       </c>
       <c r="B46" t="b">
@@ -898,7 +898,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>alerivera_.a</t>
+          <t>striveusc</t>
         </is>
       </c>
       <c r="B47" t="b">
@@ -908,7 +908,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>no.ah_vonderahe</t>
+          <t>juliecshaw</t>
         </is>
       </c>
       <c r="B48" t="b">
@@ -918,7 +918,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>bonanaa7777</t>
+          <t>alerivera_.a</t>
         </is>
       </c>
       <c r="B49" t="b">
@@ -928,7 +928,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>rhearichardss</t>
+          <t>david___kim_</t>
         </is>
       </c>
       <c r="B50" t="b">
@@ -938,7 +938,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>sansalorelei</t>
+          <t>mufnas_muneer_</t>
         </is>
       </c>
       <c r="B51" t="b">
@@ -948,7 +948,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>bencandrew</t>
+          <t>lilliandreams_</t>
         </is>
       </c>
       <c r="B52" t="b">
@@ -958,7 +958,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>mufnas_muneer_</t>
+          <t>jack.beckerman</t>
         </is>
       </c>
       <c r="B53" t="b">
@@ -968,7 +968,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>rajlakkundi</t>
+          <t>tyler_pham__</t>
         </is>
       </c>
       <c r="B54" t="b">
@@ -978,7 +978,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>betty_coleman01</t>
+          <t>lacechristine_shearblissnyc</t>
         </is>
       </c>
       <c r="B55" t="b">
@@ -988,7 +988,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>mjnajmom74</t>
+          <t>oliv.iakatsuraa</t>
         </is>
       </c>
       <c r="B56" t="b">
@@ -998,7 +998,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>selenacossio</t>
+          <t>yogiyan2023</t>
         </is>
       </c>
       <c r="B57" t="b">
@@ -1008,7 +1008,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>dillon_cogley</t>
+          <t>karolineperice</t>
         </is>
       </c>
       <c r="B58" t="b">
@@ -1018,7 +1018,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>caseykgtr</t>
+          <t>randomised___</t>
         </is>
       </c>
       <c r="B59" t="b">
@@ -1028,7 +1028,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>walkermusser_22</t>
+          <t>john.roningen</t>
         </is>
       </c>
       <c r="B60" t="b">
@@ -1038,7 +1038,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>the.golden.arlo</t>
+          <t>bennavaa</t>
         </is>
       </c>
       <c r="B61" t="b">
@@ -1048,7 +1048,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>shi.living</t>
+          <t>rajlakkundi</t>
         </is>
       </c>
       <c r="B62" t="b">
@@ -1058,7 +1058,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>matthewmohmeee</t>
+          <t>caseykgtr</t>
         </is>
       </c>
       <c r="B63" t="b">
@@ -1068,7 +1068,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>romeoanders</t>
+          <t>jacquedoane</t>
         </is>
       </c>
       <c r="B64" t="b">
@@ -1078,7 +1078,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>shriya_.vishnu</t>
+          <t>mayamorale.s</t>
         </is>
       </c>
       <c r="B65" t="b">
@@ -1088,7 +1088,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>213_.alcla</t>
+          <t>jakebunting13</t>
         </is>
       </c>
       <c r="B66" t="b">
@@ -1098,7 +1098,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>joshdeepl</t>
+          <t>adr.ian_ml</t>
         </is>
       </c>
       <c r="B67" t="b">
@@ -1108,7 +1108,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>mona_ivins</t>
+          <t>avaa.sydneyy03</t>
         </is>
       </c>
       <c r="B68" t="b">
@@ -1118,7 +1118,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>_ryan_matthews</t>
+          <t>_wi.eee.ng_</t>
         </is>
       </c>
       <c r="B69" t="b">
@@ -1128,7 +1128,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>_vanegonzalez__</t>
+          <t>armyrecruiter_peshraw</t>
         </is>
       </c>
       <c r="B70" t="b">
@@ -1138,7 +1138,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>ryan_domnic</t>
+          <t>m23y52</t>
         </is>
       </c>
       <c r="B71" t="b">
@@ -1148,7 +1148,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>dahyniel</t>
+          <t>so_robi_</t>
         </is>
       </c>
       <c r="B72" t="b">
@@ -1158,7 +1158,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>_mattmazza</t>
+          <t>priyaloran</t>
         </is>
       </c>
       <c r="B73" t="b">
@@ -1168,7 +1168,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>target_nina</t>
+          <t>caden.lowder</t>
         </is>
       </c>
       <c r="B74" t="b">
@@ -1178,7 +1178,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>so_robi_</t>
+          <t>heyitsrew</t>
         </is>
       </c>
       <c r="B75" t="b">
@@ -1188,7 +1188,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>rqyahneudeck</t>
+          <t>emilllllyyyyy_</t>
         </is>
       </c>
       <c r="B76" t="b">
@@ -1198,7 +1198,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>karissaginozaaa</t>
+          <t>emily.nlsnn</t>
         </is>
       </c>
       <c r="B77" t="b">
@@ -1208,7 +1208,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>estarddd</t>
+          <t>just1josua</t>
         </is>
       </c>
       <c r="B78" t="b">
@@ -1218,7 +1218,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>in_mxyk21</t>
+          <t>mariacranny</t>
         </is>
       </c>
       <c r="B79" t="b">
@@ -1228,7 +1228,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>christinelooper101</t>
+          <t>jhyk0516</t>
         </is>
       </c>
       <c r="B80" t="b">
@@ -1238,7 +1238,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>coo1leo</t>
+          <t>reindeer_v</t>
         </is>
       </c>
       <c r="B81" t="b">
@@ -1248,841 +1248,841 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>banfromcomments</t>
+          <t>sunjum.sanghari</t>
         </is>
       </c>
       <c r="B82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>where2beusc</t>
+          <t>seymooour</t>
         </is>
       </c>
       <c r="B83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>secretofsierra</t>
+          <t>hannaxlevy</t>
         </is>
       </c>
       <c r="B84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>user111244622</t>
+          <t>jadeyamawaki</t>
         </is>
       </c>
       <c r="B85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>armida.munoz.3</t>
+          <t>skylarhjohnson</t>
         </is>
       </c>
       <c r="B86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>dhruv__deepak</t>
+          <t>nico.lleparra</t>
         </is>
       </c>
       <c r="B87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>soapyjoesusc</t>
+          <t>patrick.__.romero</t>
         </is>
       </c>
       <c r="B88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>annabelfenwick</t>
+          <t>kayla_magdaleno_</t>
         </is>
       </c>
       <c r="B89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>valherymontanezangel</t>
+          <t>fabri_ntz10</t>
         </is>
       </c>
       <c r="B90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>nathancchang</t>
+          <t>hinborus</t>
         </is>
       </c>
       <c r="B91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>fedebecerrac</t>
+          <t>j0rdan_ch3ng</t>
         </is>
       </c>
       <c r="B92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>ellie.williammss</t>
+          <t>where2beusc</t>
         </is>
       </c>
       <c r="B93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>sunjum.sanghari</t>
+          <t>myles.lathan</t>
         </is>
       </c>
       <c r="B94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>slavov.taxii</t>
+          <t>bon_vivant_mona</t>
         </is>
       </c>
       <c r="B95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>aryan_ardalann</t>
+          <t>piarapizza_usc</t>
         </is>
       </c>
       <c r="B96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>midnighturbulence</t>
+          <t>andreajrosen</t>
         </is>
       </c>
       <c r="B97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>fatimahsaab833</t>
+          <t>michaelamatoo</t>
         </is>
       </c>
       <c r="B98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>benwiliams</t>
+          <t>arnav_dhingra</t>
         </is>
       </c>
       <c r="B99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>alexanderdoulis18</t>
+          <t>siddharthss22</t>
         </is>
       </c>
       <c r="B100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>zoewitherss</t>
+          <t>ximenaancerr</t>
         </is>
       </c>
       <c r="B101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>zara_is_zen</t>
+          <t>namaribundy2</t>
         </is>
       </c>
       <c r="B102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>alexlewandrowski</t>
+          <t>fattyfatfat89</t>
         </is>
       </c>
       <c r="B103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>macybolyard</t>
+          <t>nellyvera</t>
         </is>
       </c>
       <c r="B104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>kammile_c</t>
+          <t>sam.ing_16</t>
         </is>
       </c>
       <c r="B105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>f4timawaqar</t>
+          <t>siena_gura</t>
         </is>
       </c>
       <c r="B106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>oscarissocool</t>
+          <t>chstudebaker100__18</t>
         </is>
       </c>
       <c r="B107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>arkykk</t>
+          <t>siennagruss</t>
         </is>
       </c>
       <c r="B108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>connor.plunkett</t>
+          <t>yolandazhangg</t>
         </is>
       </c>
       <c r="B109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>g_1989_pe</t>
+          <t>macybolyard</t>
         </is>
       </c>
       <c r="B110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>nazif.016</t>
+          <t>i_do_statistics_hwk</t>
         </is>
       </c>
       <c r="B111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>arungutkin</t>
+          <t>charlie.vegac</t>
         </is>
       </c>
       <c r="B112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>michvaledez</t>
+          <t>alexandrajewison</t>
         </is>
       </c>
       <c r="B113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>m1no1_u</t>
+          <t>floress.amelia</t>
         </is>
       </c>
       <c r="B114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>sofi_vigevaaa</t>
+          <t>celebritypoolparty</t>
         </is>
       </c>
       <c r="B115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>frenchfriez6</t>
+          <t>mazondo_aka_nhlanzeko</t>
         </is>
       </c>
       <c r="B116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>oliv.iakatsuraa</t>
+          <t>ellaquerrey</t>
         </is>
       </c>
       <c r="B117" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>juliazzz_doannn_</t>
+          <t>lindaquerrey</t>
         </is>
       </c>
       <c r="B118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>dillonlightbody</t>
+          <t>chloe_mury</t>
         </is>
       </c>
       <c r="B119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>_justicecrawford</t>
+          <t>ryan.gach</t>
         </is>
       </c>
       <c r="B120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>seattlejulie</t>
+          <t>billiam._</t>
         </is>
       </c>
       <c r="B121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>mom_iamrichman</t>
+          <t>imgraciee__</t>
         </is>
       </c>
       <c r="B122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>shaangro</t>
+          <t>jacob_li13</t>
         </is>
       </c>
       <c r="B123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>ariannalume</t>
+          <t>connor_rott06</t>
         </is>
       </c>
       <c r="B124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>nico.lleparra</t>
+          <t>leaahumpire</t>
         </is>
       </c>
       <c r="B125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>kristenluckhurst</t>
+          <t>hu_choi03</t>
         </is>
       </c>
       <c r="B126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>sharonll4</t>
+          <t>annabel_ow</t>
         </is>
       </c>
       <c r="B127" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>quiet.fest</t>
+          <t>uscconcerts</t>
         </is>
       </c>
       <c r="B128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>mollymorouse</t>
+          <t>_jeffreyang_</t>
         </is>
       </c>
       <c r="B129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>teresaa.__</t>
+          <t>nadiarayyn</t>
         </is>
       </c>
       <c r="B130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>grief.baconn</t>
+          <t>chery.mima</t>
         </is>
       </c>
       <c r="B131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>cryslshaw</t>
+          <t>bianca.zack</t>
         </is>
       </c>
       <c r="B132" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>shann0nkarr</t>
+          <t>dalton.6.2.6</t>
         </is>
       </c>
       <c r="B133" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>squiiishybones</t>
+          <t>s_torres30</t>
         </is>
       </c>
       <c r="B134" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>elizabeth.longg</t>
+          <t>target_nina</t>
         </is>
       </c>
       <c r="B135" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>luismirandaaa4</t>
+          <t>oscarshishi</t>
         </is>
       </c>
       <c r="B136" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>tatum.plessas</t>
+          <t>brenda_m765</t>
         </is>
       </c>
       <c r="B137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>maxim.wu</t>
+          <t>caroline_dolce</t>
         </is>
       </c>
       <c r="B138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>siddharthss22</t>
+          <t>1zzylack</t>
         </is>
       </c>
       <c r="B139" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>piarapizza_usc</t>
+          <t>yumenlanxin</t>
         </is>
       </c>
       <c r="B140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>hh0_david</t>
+          <t>remyyyyywayz7</t>
         </is>
       </c>
       <c r="B141" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>madeline.diemer</t>
+          <t>sophiasilvaaa</t>
         </is>
       </c>
       <c r="B142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>noa_krop</t>
+          <t>kartikpandey.kapie</t>
         </is>
       </c>
       <c r="B143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>hastag_wow</t>
+          <t>soapyjoesusc</t>
         </is>
       </c>
       <c r="B144" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>sid.srikanth1</t>
+          <t>nikolyuhs</t>
         </is>
       </c>
       <c r="B145" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>afols44</t>
+          <t>leo.gwyneth.503</t>
         </is>
       </c>
       <c r="B146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>i_do_statistics_hwk</t>
+          <t>ameliachoffman</t>
         </is>
       </c>
       <c r="B147" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>ktp.usc</t>
+          <t>g_1989_pe</t>
         </is>
       </c>
       <c r="B148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>msmadisonmae</t>
+          <t>_davidauguste_</t>
         </is>
       </c>
       <c r="B149" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>themanmarquez</t>
+          <t>cuellartingz</t>
         </is>
       </c>
       <c r="B150" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>ced.arr.ose</t>
+          <t>quiet.fest</t>
         </is>
       </c>
       <c r="B151" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>rare_404</t>
+          <t>noahhmac</t>
         </is>
       </c>
       <c r="B152" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>_scarlettgoh</t>
+          <t>user111244622</t>
         </is>
       </c>
       <c r="B153" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>jegudiel_24</t>
+          <t>k.ngeam</t>
         </is>
       </c>
       <c r="B154" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>l.spellbound.l</t>
+          <t>romeoanders</t>
         </is>
       </c>
       <c r="B155" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>ashnguyenwuw</t>
+          <t>ljm_492</t>
         </is>
       </c>
       <c r="B156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>remyyyyywayz7</t>
+          <t>sophiamart1ns</t>
         </is>
       </c>
       <c r="B157" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>alextisone</t>
+          <t>raghuvonsh</t>
         </is>
       </c>
       <c r="B158" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>yang_yumo424</t>
+          <t>nickthechickflick</t>
         </is>
       </c>
       <c r="B159" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>willll.g</t>
+          <t>alliehonbo</t>
         </is>
       </c>
       <c r="B160" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>rh.r21</t>
+          <t>jacob.mandelbaum</t>
         </is>
       </c>
       <c r="B161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>guzman_ale9</t>
+          <t>mhills0705</t>
         </is>
       </c>
       <c r="B162" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>hannahwolke_</t>
+          <t>chiamakazikora</t>
         </is>
       </c>
       <c r="B163" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>josephabellojr</t>
+          <t>_justicecrawford</t>
         </is>
       </c>
       <c r="B164" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>arnavgandhi._</t>
+          <t>acemcgerrity</t>
         </is>
       </c>
       <c r="B165" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166">
@@ -2092,46 +2092,1556 @@
         </is>
       </c>
       <c r="B166" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>striveusc</t>
+          <t>dhruv__deepak</t>
         </is>
       </c>
       <c r="B167" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>s_torres30</t>
+          <t>olivia_willey_</t>
         </is>
       </c>
       <c r="B168" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>avaa.sydneyy03</t>
+          <t>passmethepaneer</t>
         </is>
       </c>
       <c r="B169" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>hinborus</t>
+          <t>madiiifordd</t>
         </is>
       </c>
       <c r="B170" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>delaneyy.walsh</t>
+        </is>
+      </c>
+      <c r="B171" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>rayjxu</t>
+        </is>
+      </c>
+      <c r="B172" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>jennyyyyy121</t>
+        </is>
+      </c>
+      <c r="B173" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>lztm.i</t>
+        </is>
+      </c>
+      <c r="B174" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>_jonathan.casillas_</t>
+        </is>
+      </c>
+      <c r="B175" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>gaberangel_</t>
+        </is>
+      </c>
+      <c r="B176" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>br3ndenm</t>
+        </is>
+      </c>
+      <c r="B177" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>yogabbygabby_l</t>
+        </is>
+      </c>
+      <c r="B178" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>notkazeem</t>
+        </is>
+      </c>
+      <c r="B179" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>klaudia__lu</t>
+        </is>
+      </c>
+      <c r="B180" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>gsheehan4</t>
+        </is>
+      </c>
+      <c r="B181" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>zjearbear</t>
+        </is>
+      </c>
+      <c r="B182" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>anniecshields</t>
+        </is>
+      </c>
+      <c r="B183" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>thejacksonjanis</t>
+        </is>
+      </c>
+      <c r="B184" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>will.vanya</t>
+        </is>
+      </c>
+      <c r="B185" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>mauryaladar73</t>
+        </is>
+      </c>
+      <c r="B186" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>arkykk</t>
+        </is>
+      </c>
+      <c r="B187" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>mona_ivins</t>
+        </is>
+      </c>
+      <c r="B188" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>owenrdoherty</t>
+        </is>
+      </c>
+      <c r="B189" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>zachj_smith</t>
+        </is>
+      </c>
+      <c r="B190" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>_jaselising</t>
+        </is>
+      </c>
+      <c r="B191" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>florinaandsierra</t>
+        </is>
+      </c>
+      <c r="B192" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>emilysuun</t>
+        </is>
+      </c>
+      <c r="B193" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>crimson_fey</t>
+        </is>
+      </c>
+      <c r="B194" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>nick_arjoma</t>
+        </is>
+      </c>
+      <c r="B195" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>chuckclark_04</t>
+        </is>
+      </c>
+      <c r="B196" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>quanwang2005</t>
+        </is>
+      </c>
+      <c r="B197" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>danielalhernan</t>
+        </is>
+      </c>
+      <c r="B198" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>mihikamishra</t>
+        </is>
+      </c>
+      <c r="B199" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>ruby_mara_269</t>
+        </is>
+      </c>
+      <c r="B200" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>themanmarquez</t>
+        </is>
+      </c>
+      <c r="B201" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>williamwang63</t>
+        </is>
+      </c>
+      <c r="B202" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>jogi1a</t>
+        </is>
+      </c>
+      <c r="B203" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>_derrick.trann_</t>
+        </is>
+      </c>
+      <c r="B204" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>crazy88x2.0</t>
+        </is>
+      </c>
+      <c r="B205" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>jakobkreissig</t>
+        </is>
+      </c>
+      <c r="B206" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>clemo.g4022</t>
+        </is>
+      </c>
+      <c r="B207" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>lucasjones_22</t>
+        </is>
+      </c>
+      <c r="B208" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>mooninq0</t>
+        </is>
+      </c>
+      <c r="B209" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>banfromcomments</t>
+        </is>
+      </c>
+      <c r="B210" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>bonanaa0000</t>
+        </is>
+      </c>
+      <c r="B211" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>hamza_chhapra</t>
+        </is>
+      </c>
+      <c r="B212" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>chanceguyton</t>
+        </is>
+      </c>
+      <c r="B213" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>jonny.ledesma</t>
+        </is>
+      </c>
+      <c r="B214" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>2dq_foto</t>
+        </is>
+      </c>
+      <c r="B215" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>grief.baconn</t>
+        </is>
+      </c>
+      <c r="B216" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>david.mcqy</t>
+        </is>
+      </c>
+      <c r="B217" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>srfitgal</t>
+        </is>
+      </c>
+      <c r="B218" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>fos.falc</t>
+        </is>
+      </c>
+      <c r="B219" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>nerilandi_</t>
+        </is>
+      </c>
+      <c r="B220" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>maxim.wu</t>
+        </is>
+      </c>
+      <c r="B221" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>hjia_61</t>
+        </is>
+      </c>
+      <c r="B222" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>henry_deckard</t>
+        </is>
+      </c>
+      <c r="B223" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>back.upfrr</t>
+        </is>
+      </c>
+      <c r="B224" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>kyle.m.tan</t>
+        </is>
+      </c>
+      <c r="B225" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>shriya_.vishnu</t>
+        </is>
+      </c>
+      <c r="B226" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>jialyu0928</t>
+        </is>
+      </c>
+      <c r="B227" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>meghanpark00</t>
+        </is>
+      </c>
+      <c r="B228" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>insia_dahod11</t>
+        </is>
+      </c>
+      <c r="B229" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>zz._zay</t>
+        </is>
+      </c>
+      <c r="B230" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>joshdeepl</t>
+        </is>
+      </c>
+      <c r="B231" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>aurorabbdty</t>
+        </is>
+      </c>
+      <c r="B232" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>mayra.riosss</t>
+        </is>
+      </c>
+      <c r="B233" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>katiehsiao</t>
+        </is>
+      </c>
+      <c r="B234" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>evan_sauer676</t>
+        </is>
+      </c>
+      <c r="B235" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>gabriel.james.johnson</t>
+        </is>
+      </c>
+      <c r="B236" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>nemo.g_</t>
+        </is>
+      </c>
+      <c r="B237" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>1971.tas</t>
+        </is>
+      </c>
+      <c r="B238" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>willll.g</t>
+        </is>
+      </c>
+      <c r="B239" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>arnavgandhi._</t>
+        </is>
+      </c>
+      <c r="B240" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>camillecoldwell</t>
+        </is>
+      </c>
+      <c r="B241" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>secretofsierra</t>
+        </is>
+      </c>
+      <c r="B242" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>maddiefm_</t>
+        </is>
+      </c>
+      <c r="B243" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>noogaronisha</t>
+        </is>
+      </c>
+      <c r="B244" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>dahyniel</t>
+        </is>
+      </c>
+      <c r="B245" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>dylanjcramer</t>
+        </is>
+      </c>
+      <c r="B246" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>kalanihill98</t>
+        </is>
+      </c>
+      <c r="B247" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>chudnaya111</t>
+        </is>
+      </c>
+      <c r="B248" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>shan_yiq</t>
+        </is>
+      </c>
+      <c r="B249" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>saavedra.mel</t>
+        </is>
+      </c>
+      <c r="B250" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>issazuo</t>
+        </is>
+      </c>
+      <c r="B251" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>ssofiaboone</t>
+        </is>
+      </c>
+      <c r="B252" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>kenny_mclaughlin_1</t>
+        </is>
+      </c>
+      <c r="B253" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>3025.mansion</t>
+        </is>
+      </c>
+      <c r="B254" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>marialolaxox</t>
+        </is>
+      </c>
+      <c r="B255" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>laurendisston</t>
+        </is>
+      </c>
+      <c r="B256" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>amanda.emily9</t>
+        </is>
+      </c>
+      <c r="B257" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>aamber.franco</t>
+        </is>
+      </c>
+      <c r="B258" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>sam.shindi</t>
+        </is>
+      </c>
+      <c r="B259" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>_lilapowell</t>
+        </is>
+      </c>
+      <c r="B260" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>kj_maxina</t>
+        </is>
+      </c>
+      <c r="B261" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>vernon.edler</t>
+        </is>
+      </c>
+      <c r="B262" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>zhuonan_004</t>
+        </is>
+      </c>
+      <c r="B263" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>dulcejamiie</t>
+        </is>
+      </c>
+      <c r="B264" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>sarvadh_2.0</t>
+        </is>
+      </c>
+      <c r="B265" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>sansalorelei</t>
+        </is>
+      </c>
+      <c r="B266" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>nick.odani</t>
+        </is>
+      </c>
+      <c r="B267" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>zoewitherss</t>
+        </is>
+      </c>
+      <c r="B268" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>nazif.016</t>
+        </is>
+      </c>
+      <c r="B269" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>m_21murali</t>
+        </is>
+      </c>
+      <c r="B270" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>samyoung_04</t>
+        </is>
+      </c>
+      <c r="B271" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>nazuralll</t>
+        </is>
+      </c>
+      <c r="B272" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>evanozgener</t>
+        </is>
+      </c>
+      <c r="B273" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>saylor.little</t>
+        </is>
+      </c>
+      <c r="B274" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>finesse_ville</t>
+        </is>
+      </c>
+      <c r="B275" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>nikonao_</t>
+        </is>
+      </c>
+      <c r="B276" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>gregory.guzman.ii</t>
+        </is>
+      </c>
+      <c r="B277" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>zeroburocracia</t>
+        </is>
+      </c>
+      <c r="B278" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>tatum.plessas</t>
+        </is>
+      </c>
+      <c r="B279" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>brendanzbanek</t>
+        </is>
+      </c>
+      <c r="B280" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>darrqn2</t>
+        </is>
+      </c>
+      <c r="B281" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>r_rayyyyyy</t>
+        </is>
+      </c>
+      <c r="B282" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>keilahh.stephh</t>
+        </is>
+      </c>
+      <c r="B283" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>_avamiranda</t>
+        </is>
+      </c>
+      <c r="B284" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>landon_ni</t>
+        </is>
+      </c>
+      <c r="B285" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>will.cotts</t>
+        </is>
+      </c>
+      <c r="B286" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>jhanaabrina</t>
+        </is>
+      </c>
+      <c r="B287" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>isha.aradhya_</t>
+        </is>
+      </c>
+      <c r="B288" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>_evanrivera_</t>
+        </is>
+      </c>
+      <c r="B289" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>cadencwebster</t>
+        </is>
+      </c>
+      <c r="B290" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>josephabellojr</t>
+        </is>
+      </c>
+      <c r="B291" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>somerandomchiu</t>
+        </is>
+      </c>
+      <c r="B292" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>karissaginozaaa</t>
+        </is>
+      </c>
+      <c r="B293" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>selenacossio</t>
+        </is>
+      </c>
+      <c r="B294" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>tristenlogan90</t>
+        </is>
+      </c>
+      <c r="B295" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>_vanegonzalez__</t>
+        </is>
+      </c>
+      <c r="B296" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>dhruva567</t>
+        </is>
+      </c>
+      <c r="B297" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>debraerdene</t>
+        </is>
+      </c>
+      <c r="B298" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>shrey_c21</t>
+        </is>
+      </c>
+      <c r="B299" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>pame_lucasss</t>
+        </is>
+      </c>
+      <c r="B300" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>emmydugi</t>
+        </is>
+      </c>
+      <c r="B301" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>sasha.t.chi</t>
+        </is>
+      </c>
+      <c r="B302" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>kiimlauren</t>
+        </is>
+      </c>
+      <c r="B303" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>sid.srikanth1</t>
+        </is>
+      </c>
+      <c r="B304" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>aparadise72</t>
+        </is>
+      </c>
+      <c r="B305" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>mollymorouse</t>
+        </is>
+      </c>
+      <c r="B306" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>cindyhuang37</t>
+        </is>
+      </c>
+      <c r="B307" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>owenpeastman</t>
+        </is>
+      </c>
+      <c r="B308" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>sophianovian</t>
+        </is>
+      </c>
+      <c r="B309" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>notjaxhurst</t>
+        </is>
+      </c>
+      <c r="B310" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>grayson_dutch</t>
+        </is>
+      </c>
+      <c r="B311" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>fightonsierra</t>
+        </is>
+      </c>
+      <c r="B312" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>rqyahneudeck</t>
+        </is>
+      </c>
+      <c r="B313" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>nataliembright</t>
+        </is>
+      </c>
+      <c r="B314" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>jordyn.nicole.13</t>
+        </is>
+      </c>
+      <c r="B315" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>mishafu0089</t>
+        </is>
+      </c>
+      <c r="B316" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>joni.ic.go</t>
+        </is>
+      </c>
+      <c r="B317" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>hyperlunion</t>
+        </is>
+      </c>
+      <c r="B318" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>ana.bilonozhko</t>
+        </is>
+      </c>
+      <c r="B319" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>wangyifei3852</t>
+        </is>
+      </c>
+      <c r="B320" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>dillonlightbody</t>
+        </is>
+      </c>
+      <c r="B321" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Marketing/trojans.roomme.xlsx
+++ b/Marketing/trojans.roomme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B321"/>
+  <dimension ref="A1:B301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>rileyssager</t>
+          <t>sarvadh_2.0</t>
         </is>
       </c>
       <c r="B2" t="b">
@@ -458,7 +458,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>celiamvphee</t>
+          <t>noa_krop</t>
         </is>
       </c>
       <c r="B3" t="b">
@@ -468,7 +468,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>sam__doane</t>
+          <t>juliannetaggg</t>
         </is>
       </c>
       <c r="B4" t="b">
@@ -478,7 +478,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>kimonsplash</t>
+          <t>malaq.ali</t>
         </is>
       </c>
       <c r="B5" t="b">
@@ -488,7 +488,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>scottrykert</t>
+          <t>meilynn_poma</t>
         </is>
       </c>
       <c r="B6" t="b">
@@ -498,7 +498,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>sophie0915_zhang</t>
+          <t>lindaquerrey</t>
         </is>
       </c>
       <c r="B7" t="b">
@@ -508,7 +508,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>yang_yumo424</t>
+          <t>kyle.m.tan</t>
         </is>
       </c>
       <c r="B8" t="b">
@@ -518,7 +518,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>livv.elise</t>
+          <t>sandyyvv</t>
         </is>
       </c>
       <c r="B9" t="b">
@@ -528,7 +528,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>exoticgotblocks</t>
+          <t>camillecoldwell</t>
         </is>
       </c>
       <c r="B10" t="b">
@@ -538,7 +538,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>jessbrady29</t>
+          <t>kammile_c</t>
         </is>
       </c>
       <c r="B11" t="b">
@@ -548,7 +548,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>zeshan.ali.khan</t>
+          <t>hamza_chhapra</t>
         </is>
       </c>
       <c r="B12" t="b">
@@ -558,7 +558,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>kylie_reese18</t>
+          <t>saavedra.mel</t>
         </is>
       </c>
       <c r="B13" t="b">
@@ -568,7 +568,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>yasmeena.atia</t>
+          <t>nathancumberbatch_</t>
         </is>
       </c>
       <c r="B14" t="b">
@@ -578,7 +578,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>213_.alcla</t>
+          <t>hinborus</t>
         </is>
       </c>
       <c r="B15" t="b">
@@ -588,7 +588,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>lpetro</t>
+          <t>tae_h0714</t>
         </is>
       </c>
       <c r="B16" t="b">
@@ -598,7 +598,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>declan.larson</t>
+          <t>yirui______s</t>
         </is>
       </c>
       <c r="B17" t="b">
@@ -608,7 +608,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>margaret.luwena</t>
+          <t>amanda.emily9</t>
         </is>
       </c>
       <c r="B18" t="b">
@@ -618,7 +618,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>11xtristanposner</t>
+          <t>cecibalarin</t>
         </is>
       </c>
       <c r="B19" t="b">
@@ -628,7 +628,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ryan_domnic</t>
+          <t>karissaginozaaa</t>
         </is>
       </c>
       <c r="B20" t="b">
@@ -638,7 +638,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>rhomalqueen</t>
+          <t>_justicecrawford</t>
         </is>
       </c>
       <c r="B21" t="b">
@@ -648,7 +648,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>_d_i_p_z_</t>
+          <t>br3ndenm</t>
         </is>
       </c>
       <c r="B22" t="b">
@@ -658,7 +658,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>m1no1_u</t>
+          <t>zhuonan_004</t>
         </is>
       </c>
       <c r="B23" t="b">
@@ -668,7 +668,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>siepstein</t>
+          <t>_davidauguste_</t>
         </is>
       </c>
       <c r="B24" t="b">
@@ -678,7 +678,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ayanmaheshwari.01</t>
+          <t>jonnyesrael</t>
         </is>
       </c>
       <c r="B25" t="b">
@@ -688,7 +688,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>isabellaa.chen</t>
+          <t>daniyarballin</t>
         </is>
       </c>
       <c r="B26" t="b">
@@ -698,7 +698,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>dillon_cogley</t>
+          <t>kiimlauren</t>
         </is>
       </c>
       <c r="B27" t="b">
@@ -708,7 +708,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>frenchfriez6</t>
+          <t>yogiyan2023</t>
         </is>
       </c>
       <c r="B28" t="b">
@@ -718,7 +718,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>shaangro</t>
+          <t>ninah.009</t>
         </is>
       </c>
       <c r="B29" t="b">
@@ -728,7 +728,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>mayaalewiss</t>
+          <t>cliffordthereddawg24</t>
         </is>
       </c>
       <c r="B30" t="b">
@@ -738,7 +738,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>annieyuujr</t>
+          <t>zeinahelalyy</t>
         </is>
       </c>
       <c r="B31" t="b">
@@ -748,7 +748,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>claragrenning</t>
+          <t>zara_is_zen</t>
         </is>
       </c>
       <c r="B32" t="b">
@@ -758,7 +758,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>joshie_3005</t>
+          <t>roshan_like_ocean</t>
         </is>
       </c>
       <c r="B33" t="b">
@@ -768,7 +768,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>keira_nrl</t>
+          <t>nazif.016</t>
         </is>
       </c>
       <c r="B34" t="b">
@@ -778,7 +778,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>_adalio</t>
+          <t>connor_rott06</t>
         </is>
       </c>
       <c r="B35" t="b">
@@ -788,7 +788,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>diego.casillas_</t>
+          <t>livv.elise</t>
         </is>
       </c>
       <c r="B36" t="b">
@@ -798,7 +798,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>laurenshehadey</t>
+          <t>_scarlettgoh</t>
         </is>
       </c>
       <c r="B37" t="b">
@@ -808,7 +808,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>nata_lie8635</t>
+          <t>caseykgtr</t>
         </is>
       </c>
       <c r="B38" t="b">
@@ -818,7 +818,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>meilynn_poma</t>
+          <t>carsonrdavis</t>
         </is>
       </c>
       <c r="B39" t="b">
@@ -828,7 +828,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>surabinama</t>
+          <t>r_rayyyyyy</t>
         </is>
       </c>
       <c r="B40" t="b">
@@ -838,7 +838,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>sofi_vigevaaa</t>
+          <t>hu_choi03</t>
         </is>
       </c>
       <c r="B41" t="b">
@@ -848,7 +848,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>the.golden.arlo</t>
+          <t>banfromcomments</t>
         </is>
       </c>
       <c r="B42" t="b">
@@ -858,7 +858,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>markreshwan</t>
+          <t>__queenbee1</t>
         </is>
       </c>
       <c r="B43" t="b">
@@ -868,7 +868,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>samiyah.janaan</t>
+          <t>jack_breen99</t>
         </is>
       </c>
       <c r="B44" t="b">
@@ -878,7 +878,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>hurstella_contemporary_art</t>
+          <t>srt.slime422</t>
         </is>
       </c>
       <c r="B45" t="b">
@@ -888,7 +888,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>__queenbee1</t>
+          <t>colinnlamm</t>
         </is>
       </c>
       <c r="B46" t="b">
@@ -898,7 +898,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>striveusc</t>
+          <t>frenchfriez6</t>
         </is>
       </c>
       <c r="B47" t="b">
@@ -908,7 +908,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>juliecshaw</t>
+          <t>ssofiaboone</t>
         </is>
       </c>
       <c r="B48" t="b">
@@ -918,7 +918,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>alerivera_.a</t>
+          <t>nikolyuhs</t>
         </is>
       </c>
       <c r="B49" t="b">
@@ -928,7 +928,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>david___kim_</t>
+          <t>alexisschoi</t>
         </is>
       </c>
       <c r="B50" t="b">
@@ -938,7 +938,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>mufnas_muneer_</t>
+          <t>valentina.anderson17</t>
         </is>
       </c>
       <c r="B51" t="b">
@@ -948,7 +948,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>lilliandreams_</t>
+          <t>armyrecruiter_peshraw</t>
         </is>
       </c>
       <c r="B52" t="b">
@@ -958,7 +958,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>jack.beckerman</t>
+          <t>hyperlunion</t>
         </is>
       </c>
       <c r="B53" t="b">
@@ -968,7 +968,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>tyler_pham__</t>
+          <t>dahyniel</t>
         </is>
       </c>
       <c r="B54" t="b">
@@ -978,7 +978,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>lacechristine_shearblissnyc</t>
+          <t>arungutkin</t>
         </is>
       </c>
       <c r="B55" t="b">
@@ -988,7 +988,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>oliv.iakatsuraa</t>
+          <t>rosalba_loop</t>
         </is>
       </c>
       <c r="B56" t="b">
@@ -998,7 +998,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>yogiyan2023</t>
+          <t>katieeamir</t>
         </is>
       </c>
       <c r="B57" t="b">
@@ -1008,7 +1008,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>karolineperice</t>
+          <t>themanmarquez</t>
         </is>
       </c>
       <c r="B58" t="b">
@@ -1018,7 +1018,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>randomised___</t>
+          <t>m1no1_u</t>
         </is>
       </c>
       <c r="B59" t="b">
@@ -1028,7 +1028,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>john.roningen</t>
+          <t>rhearichardss</t>
         </is>
       </c>
       <c r="B60" t="b">
@@ -1038,7 +1038,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>bennavaa</t>
+          <t>secretofsierra</t>
         </is>
       </c>
       <c r="B61" t="b">
@@ -1048,7 +1048,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>rajlakkundi</t>
+          <t>siddharthss22</t>
         </is>
       </c>
       <c r="B62" t="b">
@@ -1058,7 +1058,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>caseykgtr</t>
+          <t>hh0_david</t>
         </is>
       </c>
       <c r="B63" t="b">
@@ -1068,7 +1068,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>jacquedoane</t>
+          <t>alexandrajewison</t>
         </is>
       </c>
       <c r="B64" t="b">
@@ -1078,7 +1078,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>mayamorale.s</t>
+          <t>celebritypoolparty</t>
         </is>
       </c>
       <c r="B65" t="b">
@@ -1088,7 +1088,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>jakebunting13</t>
+          <t>thecoopergamble</t>
         </is>
       </c>
       <c r="B66" t="b">
@@ -1098,7 +1098,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>adr.ian_ml</t>
+          <t>the.golden.arlo</t>
         </is>
       </c>
       <c r="B67" t="b">
@@ -1108,7 +1108,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>avaa.sydneyy03</t>
+          <t>yeswayy_jose</t>
         </is>
       </c>
       <c r="B68" t="b">
@@ -1118,7 +1118,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>_wi.eee.ng_</t>
+          <t>arnav_dhingra</t>
         </is>
       </c>
       <c r="B69" t="b">
@@ -1128,7 +1128,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>armyrecruiter_peshraw</t>
+          <t>uschillel</t>
         </is>
       </c>
       <c r="B70" t="b">
@@ -1138,7 +1138,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>m23y52</t>
+          <t>ellaquerrey</t>
         </is>
       </c>
       <c r="B71" t="b">
@@ -1148,7 +1148,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>so_robi_</t>
+          <t>dulcejamiie</t>
         </is>
       </c>
       <c r="B72" t="b">
@@ -1158,7 +1158,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>priyaloran</t>
+          <t>benwiliams</t>
         </is>
       </c>
       <c r="B73" t="b">
@@ -1168,7 +1168,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>caden.lowder</t>
+          <t>__hannahmarchant</t>
         </is>
       </c>
       <c r="B74" t="b">
@@ -1178,7 +1178,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>heyitsrew</t>
+          <t>bonanaa0000</t>
         </is>
       </c>
       <c r="B75" t="b">
@@ -1188,7 +1188,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>emilllllyyyyy_</t>
+          <t>mayaalewiss</t>
         </is>
       </c>
       <c r="B76" t="b">
@@ -1198,7 +1198,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>emily.nlsnn</t>
+          <t>sophie0915_zhang</t>
         </is>
       </c>
       <c r="B77" t="b">
@@ -1208,7 +1208,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>just1josua</t>
+          <t>klaudia__lu</t>
         </is>
       </c>
       <c r="B78" t="b">
@@ -1218,7 +1218,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>mariacranny</t>
+          <t>yolandazhangg</t>
         </is>
       </c>
       <c r="B79" t="b">
@@ -1228,7 +1228,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>jhyk0516</t>
+          <t>_aaravgrover</t>
         </is>
       </c>
       <c r="B80" t="b">
@@ -1238,7 +1238,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>reindeer_v</t>
+          <t>shrey_c21</t>
         </is>
       </c>
       <c r="B81" t="b">
@@ -1248,1207 +1248,1207 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>sunjum.sanghari</t>
+          <t>gregory.guzman.ii</t>
         </is>
       </c>
       <c r="B82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>seymooour</t>
+          <t>hannahwolke_</t>
         </is>
       </c>
       <c r="B83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>hannaxlevy</t>
+          <t>nicoaraujo243</t>
         </is>
       </c>
       <c r="B84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>jadeyamawaki</t>
+          <t>hudsonstimmler</t>
         </is>
       </c>
       <c r="B85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>skylarhjohnson</t>
+          <t>babubovski</t>
         </is>
       </c>
       <c r="B86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>nico.lleparra</t>
+          <t>sasha.t.chi</t>
         </is>
       </c>
       <c r="B87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>patrick.__.romero</t>
+          <t>kartikpandey.kapie</t>
         </is>
       </c>
       <c r="B88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>kayla_magdaleno_</t>
+          <t>wangyifei3852</t>
         </is>
       </c>
       <c r="B89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>fabri_ntz10</t>
+          <t>gsheehan4</t>
         </is>
       </c>
       <c r="B90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>hinborus</t>
+          <t>ayanmaheshwari.01</t>
         </is>
       </c>
       <c r="B91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>j0rdan_ch3ng</t>
+          <t>sharonll4</t>
         </is>
       </c>
       <c r="B92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>where2beusc</t>
+          <t>lacechristine_shearblissnyc</t>
         </is>
       </c>
       <c r="B93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>myles.lathan</t>
+          <t>crimson_fey</t>
         </is>
       </c>
       <c r="B94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>bon_vivant_mona</t>
+          <t>thekylemcintyre</t>
         </is>
       </c>
       <c r="B95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>piarapizza_usc</t>
+          <t>gabbi.sky</t>
         </is>
       </c>
       <c r="B96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>andreajrosen</t>
+          <t>oog_generation</t>
         </is>
       </c>
       <c r="B97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>michaelamatoo</t>
+          <t>meribinks</t>
         </is>
       </c>
       <c r="B98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>arnav_dhingra</t>
+          <t>mishafu0089</t>
         </is>
       </c>
       <c r="B99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>siddharthss22</t>
+          <t>isha.aradhya_</t>
         </is>
       </c>
       <c r="B100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>ximenaancerr</t>
+          <t>heyitsrew</t>
         </is>
       </c>
       <c r="B101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>namaribundy2</t>
+          <t>slavov.taxii</t>
         </is>
       </c>
       <c r="B102" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>fattyfatfat89</t>
+          <t>laurenrc28</t>
         </is>
       </c>
       <c r="B103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>nellyvera</t>
+          <t>nico.lleparra</t>
         </is>
       </c>
       <c r="B104" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>sam.ing_16</t>
+          <t>_timkwon82</t>
         </is>
       </c>
       <c r="B105" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>siena_gura</t>
+          <t>selena_9.100</t>
         </is>
       </c>
       <c r="B106" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>chstudebaker100__18</t>
+          <t>marissa.avilaa</t>
         </is>
       </c>
       <c r="B107" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>siennagruss</t>
+          <t>owenrdoherty</t>
         </is>
       </c>
       <c r="B108" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>yolandazhangg</t>
+          <t>j0rdan_ch3ng</t>
         </is>
       </c>
       <c r="B109" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>macybolyard</t>
+          <t>fredfj05</t>
         </is>
       </c>
       <c r="B110" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>i_do_statistics_hwk</t>
+          <t>vivih414</t>
         </is>
       </c>
       <c r="B111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>charlie.vegac</t>
+          <t>siennagruss</t>
         </is>
       </c>
       <c r="B112" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>alexandrajewison</t>
+          <t>landon_ni</t>
         </is>
       </c>
       <c r="B113" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>floress.amelia</t>
+          <t>erica_arrt</t>
         </is>
       </c>
       <c r="B114" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>celebritypoolparty</t>
+          <t>passmethepaneer</t>
         </is>
       </c>
       <c r="B115" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>mazondo_aka_nhlanzeko</t>
+          <t>jorabercrombie9</t>
         </is>
       </c>
       <c r="B116" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>ellaquerrey</t>
+          <t>kam_hooper_25</t>
         </is>
       </c>
       <c r="B117" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>lindaquerrey</t>
+          <t>hollyc0105</t>
         </is>
       </c>
       <c r="B118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>chloe_mury</t>
+          <t>will.cotts</t>
         </is>
       </c>
       <c r="B119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>ryan.gach</t>
+          <t>dillonlightbody</t>
         </is>
       </c>
       <c r="B120" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>billiam._</t>
+          <t>remyyyyywayz7</t>
         </is>
       </c>
       <c r="B121" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>imgraciee__</t>
+          <t>camil_aclark</t>
         </is>
       </c>
       <c r="B122" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>jacob_li13</t>
+          <t>annakreedd</t>
         </is>
       </c>
       <c r="B123" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>connor_rott06</t>
+          <t>philipcamuto</t>
         </is>
       </c>
       <c r="B124" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>leaahumpire</t>
+          <t>that_on3_angel</t>
         </is>
       </c>
       <c r="B125" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>hu_choi03</t>
+          <t>christinelooper101</t>
         </is>
       </c>
       <c r="B126" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>annabel_ow</t>
+          <t>nicholasarya6</t>
         </is>
       </c>
       <c r="B127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>uscconcerts</t>
+          <t>danielpanusa</t>
         </is>
       </c>
       <c r="B128" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>_jeffreyang_</t>
+          <t>noah.teves4</t>
         </is>
       </c>
       <c r="B129" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>nadiarayyn</t>
+          <t>stephenjhuntiv</t>
         </is>
       </c>
       <c r="B130" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>chery.mima</t>
+          <t>yogabbygabby_l</t>
         </is>
       </c>
       <c r="B131" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>bianca.zack</t>
+          <t>jialyu0928</t>
         </is>
       </c>
       <c r="B132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>dalton.6.2.6</t>
+          <t>emiliano_card</t>
         </is>
       </c>
       <c r="B133" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>s_torres30</t>
+          <t>l.spellbound.l</t>
         </is>
       </c>
       <c r="B134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>target_nina</t>
+          <t>ximenaancerr</t>
         </is>
       </c>
       <c r="B135" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>oscarshishi</t>
+          <t>guzman_ale9</t>
         </is>
       </c>
       <c r="B136" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>brenda_m765</t>
+          <t>fightonsierra</t>
         </is>
       </c>
       <c r="B137" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>caroline_dolce</t>
+          <t>sophiasilvaaa</t>
         </is>
       </c>
       <c r="B138" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>1zzylack</t>
+          <t>siepstein</t>
         </is>
       </c>
       <c r="B139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>yumenlanxin</t>
+          <t>jirehbermoy</t>
         </is>
       </c>
       <c r="B140" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>remyyyyywayz7</t>
+          <t>nickcyrusa</t>
         </is>
       </c>
       <c r="B141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>sophiasilvaaa</t>
+          <t>ryan_domnic</t>
         </is>
       </c>
       <c r="B142" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>kartikpandey.kapie</t>
+          <t>douglasbangura</t>
         </is>
       </c>
       <c r="B143" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>soapyjoesusc</t>
+          <t>nemo.g_</t>
         </is>
       </c>
       <c r="B144" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>nikolyuhs</t>
+          <t>3025.mansion</t>
         </is>
       </c>
       <c r="B145" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>leo.gwyneth.503</t>
+          <t>alexlewandrowski</t>
         </is>
       </c>
       <c r="B146" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>ameliachoffman</t>
+          <t>tommy.strauss_</t>
         </is>
       </c>
       <c r="B147" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>g_1989_pe</t>
+          <t>juliazzz_doannn_</t>
         </is>
       </c>
       <c r="B148" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>_davidauguste_</t>
+          <t>myles.lathan</t>
         </is>
       </c>
       <c r="B149" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>cuellartingz</t>
+          <t>gabriellegonzzz</t>
         </is>
       </c>
       <c r="B150" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>quiet.fest</t>
+          <t>ferlynnechavez_5</t>
         </is>
       </c>
       <c r="B151" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>noahhmac</t>
+          <t>nerilandi_</t>
         </is>
       </c>
       <c r="B152" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>user111244622</t>
+          <t>henry_deckard</t>
         </is>
       </c>
       <c r="B153" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>k.ngeam</t>
+          <t>kalanihill98</t>
         </is>
       </c>
       <c r="B154" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>romeoanders</t>
+          <t>jacquedoane</t>
         </is>
       </c>
       <c r="B155" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>ljm_492</t>
+          <t>sam.ing_16</t>
         </is>
       </c>
       <c r="B156" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>sophiamart1ns</t>
+          <t>owenpeastman</t>
         </is>
       </c>
       <c r="B157" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>raghuvonsh</t>
+          <t>evan_sauer676</t>
         </is>
       </c>
       <c r="B158" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>nickthechickflick</t>
+          <t>chstudebaker100__18</t>
         </is>
       </c>
       <c r="B159" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>alliehonbo</t>
+          <t>_duncan.b20</t>
         </is>
       </c>
       <c r="B160" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>jacob.mandelbaum</t>
+          <t>striveusc</t>
         </is>
       </c>
       <c r="B161" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>mhills0705</t>
+          <t>imgraciee__</t>
         </is>
       </c>
       <c r="B162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>chiamakazikora</t>
+          <t>pame_lucasss</t>
         </is>
       </c>
       <c r="B163" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>_justicecrawford</t>
+          <t>_joseasosa</t>
         </is>
       </c>
       <c r="B164" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>acemcgerrity</t>
+          <t>bonanaa7777</t>
         </is>
       </c>
       <c r="B165" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>katieajames_</t>
+          <t>rh.r21</t>
         </is>
       </c>
       <c r="B166" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>dhruv__deepak</t>
+          <t>janafladd</t>
         </is>
       </c>
       <c r="B167" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>olivia_willey_</t>
+          <t>mollymorouse</t>
         </is>
       </c>
       <c r="B168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>passmethepaneer</t>
+          <t>mia.carpenter</t>
         </is>
       </c>
       <c r="B169" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>madiiifordd</t>
+          <t>margaret.luwena</t>
         </is>
       </c>
       <c r="B170" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>delaneyy.walsh</t>
+          <t>rylanbohnett</t>
         </is>
       </c>
       <c r="B171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>rayjxu</t>
+          <t>_mahshid_k</t>
         </is>
       </c>
       <c r="B172" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>jennyyyyy121</t>
+          <t>nickthechickflick</t>
         </is>
       </c>
       <c r="B173" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>lztm.i</t>
+          <t>where2beusc</t>
         </is>
       </c>
       <c r="B174" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>_jonathan.casillas_</t>
+          <t>fattyfatfat89</t>
         </is>
       </c>
       <c r="B175" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>gaberangel_</t>
+          <t>s_torres30</t>
         </is>
       </c>
       <c r="B176" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>br3ndenm</t>
+          <t>matt.esneault</t>
         </is>
       </c>
       <c r="B177" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>yogabbygabby_l</t>
+          <t>mufnas_muneer_</t>
         </is>
       </c>
       <c r="B178" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>notkazeem</t>
+          <t>bornfit585</t>
         </is>
       </c>
       <c r="B179" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>klaudia__lu</t>
+          <t>mel1ssa.333</t>
         </is>
       </c>
       <c r="B180" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>gsheehan4</t>
+          <t>joanne.zhuo1</t>
         </is>
       </c>
       <c r="B181" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>zjearbear</t>
+          <t>celiamvphee</t>
         </is>
       </c>
       <c r="B182" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>anniecshields</t>
+          <t>_arnavgoel</t>
         </is>
       </c>
       <c r="B183" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>thejacksonjanis</t>
+          <t>cynthiaa.chan</t>
         </is>
       </c>
       <c r="B184" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>will.vanya</t>
+          <t>bjmoonn</t>
         </is>
       </c>
       <c r="B185" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>mauryaladar73</t>
+          <t>hurstella_contemporary_art</t>
         </is>
       </c>
       <c r="B186" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>arkykk</t>
+          <t>kian.hosseini_</t>
         </is>
       </c>
       <c r="B187" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>mona_ivins</t>
+          <t>bella._allen</t>
         </is>
       </c>
       <c r="B188" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>owenrdoherty</t>
+          <t>ryan.gach</t>
         </is>
       </c>
       <c r="B189" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>zachj_smith</t>
+          <t>katieogorman1</t>
         </is>
       </c>
       <c r="B190" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>_jaselising</t>
+          <t>k.ngeam</t>
         </is>
       </c>
       <c r="B191" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>florinaandsierra</t>
+          <t>lillianemmaa</t>
         </is>
       </c>
       <c r="B192" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>emilysuun</t>
+          <t>cuellartingz</t>
         </is>
       </c>
       <c r="B193" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>crimson_fey</t>
+          <t>tjacoyne_</t>
         </is>
       </c>
       <c r="B194" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>nick_arjoma</t>
+          <t>jacob.mandelbaum</t>
         </is>
       </c>
       <c r="B195" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>chuckclark_04</t>
+          <t>ariannalume</t>
         </is>
       </c>
       <c r="B196" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>quanwang2005</t>
+          <t>11xtristanposner</t>
         </is>
       </c>
       <c r="B197" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>danielalhernan</t>
+          <t>jennyyyyy121</t>
         </is>
       </c>
       <c r="B198" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>mihikamishra</t>
+          <t>_nateguerrero</t>
         </is>
       </c>
       <c r="B199" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>ruby_mara_269</t>
+          <t>emilllllyyyyy_</t>
         </is>
       </c>
       <c r="B200" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>themanmarquez</t>
+          <t>zz._zay</t>
         </is>
       </c>
       <c r="B201" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>williamwang63</t>
+          <t>emilysuun</t>
         </is>
       </c>
       <c r="B202" t="b">
@@ -2458,7 +2458,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>jogi1a</t>
+          <t>kimonsplash</t>
         </is>
       </c>
       <c r="B203" t="b">
@@ -2468,7 +2468,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>_derrick.trann_</t>
+          <t>becca.losey</t>
         </is>
       </c>
       <c r="B204" t="b">
@@ -2478,7 +2478,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>crazy88x2.0</t>
+          <t>vishnu_sk05</t>
         </is>
       </c>
       <c r="B205" t="b">
@@ -2488,7 +2488,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>jakobkreissig</t>
+          <t>sansalorelei</t>
         </is>
       </c>
       <c r="B206" t="b">
@@ -2498,7 +2498,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>clemo.g4022</t>
+          <t>bennavaa</t>
         </is>
       </c>
       <c r="B207" t="b">
@@ -2508,7 +2508,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>lucasjones_22</t>
+          <t>brownndaniellee</t>
         </is>
       </c>
       <c r="B208" t="b">
@@ -2518,7 +2518,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>mooninq0</t>
+          <t>___luislisboa</t>
         </is>
       </c>
       <c r="B209" t="b">
@@ -2528,7 +2528,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>banfromcomments</t>
+          <t>billiam._</t>
         </is>
       </c>
       <c r="B210" t="b">
@@ -2538,7 +2538,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>bonanaa0000</t>
+          <t>somerandomchiu</t>
         </is>
       </c>
       <c r="B211" t="b">
@@ -2548,7 +2548,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>hamza_chhapra</t>
+          <t>diana_puert20</t>
         </is>
       </c>
       <c r="B212" t="b">
@@ -2558,7 +2558,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>chanceguyton</t>
+          <t>ligiarosser</t>
         </is>
       </c>
       <c r="B213" t="b">
@@ -2568,7 +2568,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>jonny.ledesma</t>
+          <t>mariacranny</t>
         </is>
       </c>
       <c r="B214" t="b">
@@ -2578,7 +2578,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>2dq_foto</t>
+          <t>tristaan3</t>
         </is>
       </c>
       <c r="B215" t="b">
@@ -2588,7 +2588,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>grief.baconn</t>
+          <t>bradyjjack</t>
         </is>
       </c>
       <c r="B216" t="b">
@@ -2598,7 +2598,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>david.mcqy</t>
+          <t>sarahwoodutter</t>
         </is>
       </c>
       <c r="B217" t="b">
@@ -2608,7 +2608,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>srfitgal</t>
+          <t>analicia.scoggins</t>
         </is>
       </c>
       <c r="B218" t="b">
@@ -2618,7 +2618,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>fos.falc</t>
+          <t>chudnaya111</t>
         </is>
       </c>
       <c r="B219" t="b">
@@ -2628,7 +2628,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>nerilandi_</t>
+          <t>kristenluckhurst</t>
         </is>
       </c>
       <c r="B220" t="b">
@@ -2638,7 +2638,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>maxim.wu</t>
+          <t>annabel_ow</t>
         </is>
       </c>
       <c r="B221" t="b">
@@ -2648,7 +2648,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>hjia_61</t>
+          <t>carolinekelliny</t>
         </is>
       </c>
       <c r="B222" t="b">
@@ -2658,7 +2658,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>henry_deckard</t>
+          <t>avni.hulyalkar</t>
         </is>
       </c>
       <c r="B223" t="b">
@@ -2668,7 +2668,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>back.upfrr</t>
+          <t>florinaandsierra</t>
         </is>
       </c>
       <c r="B224" t="b">
@@ -2678,7 +2678,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>kyle.m.tan</t>
+          <t>ced.arr.ose</t>
         </is>
       </c>
       <c r="B225" t="b">
@@ -2688,7 +2688,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>shriya_.vishnu</t>
+          <t>jul1awarren</t>
         </is>
       </c>
       <c r="B226" t="b">
@@ -2698,7 +2698,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>jialyu0928</t>
+          <t>raghuvonsh</t>
         </is>
       </c>
       <c r="B227" t="b">
@@ -2708,7 +2708,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>meghanpark00</t>
+          <t>dnl_wng</t>
         </is>
       </c>
       <c r="B228" t="b">
@@ -2718,7 +2718,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>insia_dahod11</t>
+          <t>aashi_chandna</t>
         </is>
       </c>
       <c r="B229" t="b">
@@ -2728,7 +2728,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>zz._zay</t>
+          <t>jack.beckerman</t>
         </is>
       </c>
       <c r="B230" t="b">
@@ -2738,7 +2738,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>joshdeepl</t>
+          <t>willll.g</t>
         </is>
       </c>
       <c r="B231" t="b">
@@ -2748,7 +2748,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>aurorabbdty</t>
+          <t>gabriel.james.johnson</t>
         </is>
       </c>
       <c r="B232" t="b">
@@ -2758,7 +2758,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>mayra.riosss</t>
+          <t>hjia_61</t>
         </is>
       </c>
       <c r="B233" t="b">
@@ -2768,7 +2768,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>katiehsiao</t>
+          <t>emmydugi</t>
         </is>
       </c>
       <c r="B234" t="b">
@@ -2778,7 +2778,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>evan_sauer676</t>
+          <t>jaden_moore2</t>
         </is>
       </c>
       <c r="B235" t="b">
@@ -2788,7 +2788,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>gabriel.james.johnson</t>
+          <t>goducksdad</t>
         </is>
       </c>
       <c r="B236" t="b">
@@ -2798,7 +2798,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>nemo.g_</t>
+          <t>uscconcerts</t>
         </is>
       </c>
       <c r="B237" t="b">
@@ -2808,7 +2808,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>1971.tas</t>
+          <t>alliehonbo</t>
         </is>
       </c>
       <c r="B238" t="b">
@@ -2818,7 +2818,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>willll.g</t>
+          <t>delaneyy.walsh</t>
         </is>
       </c>
       <c r="B239" t="b">
@@ -2828,7 +2828,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>arnavgandhi._</t>
+          <t>_lilapowell</t>
         </is>
       </c>
       <c r="B240" t="b">
@@ -2838,7 +2838,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>camillecoldwell</t>
+          <t>zeshan.ali.khan</t>
         </is>
       </c>
       <c r="B241" t="b">
@@ -2848,7 +2848,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>secretofsierra</t>
+          <t>elijahrrock</t>
         </is>
       </c>
       <c r="B242" t="b">
@@ -2858,7 +2858,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>maddiefm_</t>
+          <t>_avamiranda</t>
         </is>
       </c>
       <c r="B243" t="b">
@@ -2868,7 +2868,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>noogaronisha</t>
+          <t>rqyahneudeck</t>
         </is>
       </c>
       <c r="B244" t="b">
@@ -2878,7 +2878,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>dahyniel</t>
+          <t>darius.mahjoob</t>
         </is>
       </c>
       <c r="B245" t="b">
@@ -2888,7 +2888,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>dylanjcramer</t>
+          <t>nick.odani</t>
         </is>
       </c>
       <c r="B246" t="b">
@@ -2898,7 +2898,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>kalanihill98</t>
+          <t>jhanaabrina</t>
         </is>
       </c>
       <c r="B247" t="b">
@@ -2908,7 +2908,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>chudnaya111</t>
+          <t>tyler_pham__</t>
         </is>
       </c>
       <c r="B248" t="b">
@@ -2918,7 +2918,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>shan_yiq</t>
+          <t>donovanmkdavis</t>
         </is>
       </c>
       <c r="B249" t="b">
@@ -2928,7 +2928,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>saavedra.mel</t>
+          <t>michaelmarrtinez</t>
         </is>
       </c>
       <c r="B250" t="b">
@@ -2938,7 +2938,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>issazuo</t>
+          <t>madeline.diemer</t>
         </is>
       </c>
       <c r="B251" t="b">
@@ -2948,7 +2948,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>ssofiaboone</t>
+          <t>mayra.riosss</t>
         </is>
       </c>
       <c r="B252" t="b">
@@ -2958,7 +2958,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>kenny_mclaughlin_1</t>
+          <t>john.roningen</t>
         </is>
       </c>
       <c r="B253" t="b">
@@ -2968,7 +2968,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>3025.mansion</t>
+          <t>hkim7614</t>
         </is>
       </c>
       <c r="B254" t="b">
@@ -2978,7 +2978,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>marialolaxox</t>
+          <t>yeah__rod</t>
         </is>
       </c>
       <c r="B255" t="b">
@@ -2988,7 +2988,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>laurendisston</t>
+          <t>keira_nrl</t>
         </is>
       </c>
       <c r="B256" t="b">
@@ -2998,7 +2998,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>amanda.emily9</t>
+          <t>leighannwebster</t>
         </is>
       </c>
       <c r="B257" t="b">
@@ -3008,7 +3008,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>aamber.franco</t>
+          <t>madeline.stephen</t>
         </is>
       </c>
       <c r="B258" t="b">
@@ -3018,7 +3018,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>sam.shindi</t>
+          <t>_jeffreyang_</t>
         </is>
       </c>
       <c r="B259" t="b">
@@ -3028,7 +3028,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>_lilapowell</t>
+          <t>lpetro</t>
         </is>
       </c>
       <c r="B260" t="b">
@@ -3038,7 +3038,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>kj_maxina</t>
+          <t>sam.shindi</t>
         </is>
       </c>
       <c r="B261" t="b">
@@ -3048,7 +3048,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>vernon.edler</t>
+          <t>grayson_dutch</t>
         </is>
       </c>
       <c r="B262" t="b">
@@ -3058,7 +3058,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>zhuonan_004</t>
+          <t>siena_gura</t>
         </is>
       </c>
       <c r="B263" t="b">
@@ -3068,7 +3068,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>dulcejamiie</t>
+          <t>ivanarag11</t>
         </is>
       </c>
       <c r="B264" t="b">
@@ -3078,7 +3078,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>sarvadh_2.0</t>
+          <t>alerivera_.a</t>
         </is>
       </c>
       <c r="B265" t="b">
@@ -3088,7 +3088,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>sansalorelei</t>
+          <t>ellajanedougherty</t>
         </is>
       </c>
       <c r="B266" t="b">
@@ -3098,7 +3098,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>nick.odani</t>
+          <t>aparadise72</t>
         </is>
       </c>
       <c r="B267" t="b">
@@ -3108,7 +3108,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>zoewitherss</t>
+          <t>evanozgener</t>
         </is>
       </c>
       <c r="B268" t="b">
@@ -3118,7 +3118,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>nazif.016</t>
+          <t>joshie_3005</t>
         </is>
       </c>
       <c r="B269" t="b">
@@ -3128,7 +3128,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>m_21murali</t>
+          <t>scottrykert</t>
         </is>
       </c>
       <c r="B270" t="b">
@@ -3138,7 +3138,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>samyoung_04</t>
+          <t>zoewitherss</t>
         </is>
       </c>
       <c r="B271" t="b">
@@ -3148,7 +3148,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>nazuralll</t>
+          <t>_d_i_p_z_</t>
         </is>
       </c>
       <c r="B272" t="b">
@@ -3158,7 +3158,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>evanozgener</t>
+          <t>midnighturbulence</t>
         </is>
       </c>
       <c r="B273" t="b">
@@ -3168,7 +3168,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>saylor.little</t>
+          <t>amyrisimone</t>
         </is>
       </c>
       <c r="B274" t="b">
@@ -3178,7 +3178,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>finesse_ville</t>
+          <t>reindeer_v</t>
         </is>
       </c>
       <c r="B275" t="b">
@@ -3188,7 +3188,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>nikonao_</t>
+          <t>montreuxapieds</t>
         </is>
       </c>
       <c r="B276" t="b">
@@ -3198,7 +3198,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>gregory.guzman.ii</t>
+          <t>madiiifordd</t>
         </is>
       </c>
       <c r="B277" t="b">
@@ -3208,7 +3208,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>zeroburocracia</t>
+          <t>thompson.phan</t>
         </is>
       </c>
       <c r="B278" t="b">
@@ -3218,7 +3218,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>tatum.plessas</t>
+          <t>jogi1a</t>
         </is>
       </c>
       <c r="B279" t="b">
@@ -3228,7 +3228,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>brendanzbanek</t>
+          <t>katieajames_</t>
         </is>
       </c>
       <c r="B280" t="b">
@@ -3238,7 +3238,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>darrqn2</t>
+          <t>debraerdene</t>
         </is>
       </c>
       <c r="B281" t="b">
@@ -3248,7 +3248,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>r_rayyyyyy</t>
+          <t>ishaninfinitum1</t>
         </is>
       </c>
       <c r="B282" t="b">
@@ -3258,7 +3258,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>keilahh.stephh</t>
+          <t>ellie.williammss</t>
         </is>
       </c>
       <c r="B283" t="b">
@@ -3268,7 +3268,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>_avamiranda</t>
+          <t>_evanrivera_</t>
         </is>
       </c>
       <c r="B284" t="b">
@@ -3278,7 +3278,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>landon_ni</t>
+          <t>yangchen.lham0</t>
         </is>
       </c>
       <c r="B285" t="b">
@@ -3288,7 +3288,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>will.cotts</t>
+          <t>justin_sunwoo</t>
         </is>
       </c>
       <c r="B286" t="b">
@@ -3298,7 +3298,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>jhanaabrina</t>
+          <t>_wi.eee.ng_</t>
         </is>
       </c>
       <c r="B287" t="b">
@@ -3308,7 +3308,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>isha.aradhya_</t>
+          <t>_mattmazza</t>
         </is>
       </c>
       <c r="B288" t="b">
@@ -3318,7 +3318,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>_evanrivera_</t>
+          <t>mam.jaaa</t>
         </is>
       </c>
       <c r="B289" t="b">
@@ -3328,7 +3328,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>cadencwebster</t>
+          <t>vernon.edler</t>
         </is>
       </c>
       <c r="B290" t="b">
@@ -3338,7 +3338,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>josephabellojr</t>
+          <t>_derrick.trann_</t>
         </is>
       </c>
       <c r="B291" t="b">
@@ -3348,7 +3348,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>somerandomchiu</t>
+          <t>emily.nlsnn</t>
         </is>
       </c>
       <c r="B292" t="b">
@@ -3358,7 +3358,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>karissaginozaaa</t>
+          <t>romeoanders</t>
         </is>
       </c>
       <c r="B293" t="b">
@@ -3368,7 +3368,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>selenacossio</t>
+          <t>anniecshields</t>
         </is>
       </c>
       <c r="B294" t="b">
@@ -3378,7 +3378,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>tristenlogan90</t>
+          <t>acemcgerrity</t>
         </is>
       </c>
       <c r="B295" t="b">
@@ -3388,7 +3388,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>_vanegonzalez__</t>
+          <t>surabinama</t>
         </is>
       </c>
       <c r="B296" t="b">
@@ -3398,7 +3398,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>dhruva567</t>
+          <t>rhianna.nguyen16</t>
         </is>
       </c>
       <c r="B297" t="b">
@@ -3408,7 +3408,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>debraerdene</t>
+          <t>brendanzbanek</t>
         </is>
       </c>
       <c r="B298" t="b">
@@ -3418,7 +3418,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>shrey_c21</t>
+          <t>_jaselising</t>
         </is>
       </c>
       <c r="B299" t="b">
@@ -3428,7 +3428,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>pame_lucasss</t>
+          <t>keilahh.stephh</t>
         </is>
       </c>
       <c r="B300" t="b">
@@ -3438,210 +3438,10 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>emmydugi</t>
+          <t>will.vanya</t>
         </is>
       </c>
       <c r="B301" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" t="inlineStr">
-        <is>
-          <t>sasha.t.chi</t>
-        </is>
-      </c>
-      <c r="B302" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" t="inlineStr">
-        <is>
-          <t>kiimlauren</t>
-        </is>
-      </c>
-      <c r="B303" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" t="inlineStr">
-        <is>
-          <t>sid.srikanth1</t>
-        </is>
-      </c>
-      <c r="B304" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" t="inlineStr">
-        <is>
-          <t>aparadise72</t>
-        </is>
-      </c>
-      <c r="B305" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" t="inlineStr">
-        <is>
-          <t>mollymorouse</t>
-        </is>
-      </c>
-      <c r="B306" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" t="inlineStr">
-        <is>
-          <t>cindyhuang37</t>
-        </is>
-      </c>
-      <c r="B307" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" t="inlineStr">
-        <is>
-          <t>owenpeastman</t>
-        </is>
-      </c>
-      <c r="B308" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" t="inlineStr">
-        <is>
-          <t>sophianovian</t>
-        </is>
-      </c>
-      <c r="B309" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" t="inlineStr">
-        <is>
-          <t>notjaxhurst</t>
-        </is>
-      </c>
-      <c r="B310" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" t="inlineStr">
-        <is>
-          <t>grayson_dutch</t>
-        </is>
-      </c>
-      <c r="B311" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" t="inlineStr">
-        <is>
-          <t>fightonsierra</t>
-        </is>
-      </c>
-      <c r="B312" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" t="inlineStr">
-        <is>
-          <t>rqyahneudeck</t>
-        </is>
-      </c>
-      <c r="B313" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" t="inlineStr">
-        <is>
-          <t>nataliembright</t>
-        </is>
-      </c>
-      <c r="B314" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315" t="inlineStr">
-        <is>
-          <t>jordyn.nicole.13</t>
-        </is>
-      </c>
-      <c r="B315" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" t="inlineStr">
-        <is>
-          <t>mishafu0089</t>
-        </is>
-      </c>
-      <c r="B316" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" t="inlineStr">
-        <is>
-          <t>joni.ic.go</t>
-        </is>
-      </c>
-      <c r="B317" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" t="inlineStr">
-        <is>
-          <t>hyperlunion</t>
-        </is>
-      </c>
-      <c r="B318" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" t="inlineStr">
-        <is>
-          <t>ana.bilonozhko</t>
-        </is>
-      </c>
-      <c r="B319" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320" t="inlineStr">
-        <is>
-          <t>wangyifei3852</t>
-        </is>
-      </c>
-      <c r="B320" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321" t="inlineStr">
-        <is>
-          <t>dillonlightbody</t>
-        </is>
-      </c>
-      <c r="B321" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Marketing/trojans.roomme.xlsx
+++ b/Marketing/trojans.roomme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B301"/>
+  <dimension ref="A1:B340"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>sarvadh_2.0</t>
+          <t>andygrass0</t>
         </is>
       </c>
       <c r="B2" t="b">
@@ -458,7 +458,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>noa_krop</t>
+          <t>hamynjoo_</t>
         </is>
       </c>
       <c r="B3" t="b">
@@ -468,7 +468,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>juliannetaggg</t>
+          <t>_justicecrawford</t>
         </is>
       </c>
       <c r="B4" t="b">
@@ -478,7 +478,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>malaq.ali</t>
+          <t>_mattmazza</t>
         </is>
       </c>
       <c r="B5" t="b">
@@ -488,7 +488,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>meilynn_poma</t>
+          <t>carmenpakash</t>
         </is>
       </c>
       <c r="B6" t="b">
@@ -498,7 +498,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>lindaquerrey</t>
+          <t>its.gabby2.0</t>
         </is>
       </c>
       <c r="B7" t="b">
@@ -508,7 +508,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>kyle.m.tan</t>
+          <t>jhyk0516</t>
         </is>
       </c>
       <c r="B8" t="b">
@@ -518,7 +518,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>sandyyvv</t>
+          <t>ana_farhana_</t>
         </is>
       </c>
       <c r="B9" t="b">
@@ -528,7 +528,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>camillecoldwell</t>
+          <t>saavedra.mel</t>
         </is>
       </c>
       <c r="B10" t="b">
@@ -538,7 +538,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>kammile_c</t>
+          <t>analicia.scoggins</t>
         </is>
       </c>
       <c r="B11" t="b">
@@ -548,7 +548,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>hamza_chhapra</t>
+          <t>yidong88</t>
         </is>
       </c>
       <c r="B12" t="b">
@@ -558,7 +558,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>saavedra.mel</t>
+          <t>r_rayyyyyy</t>
         </is>
       </c>
       <c r="B13" t="b">
@@ -568,7 +568,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>nathancumberbatch_</t>
+          <t>srinivasulugelle</t>
         </is>
       </c>
       <c r="B14" t="b">
@@ -578,7 +578,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>hinborus</t>
+          <t>pcanqui</t>
         </is>
       </c>
       <c r="B15" t="b">
@@ -588,7 +588,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>tae_h0714</t>
+          <t>nellyvera</t>
         </is>
       </c>
       <c r="B16" t="b">
@@ -598,7 +598,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>yirui______s</t>
+          <t>evera9</t>
         </is>
       </c>
       <c r="B17" t="b">
@@ -608,7 +608,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>amanda.emily9</t>
+          <t>mollymorouse</t>
         </is>
       </c>
       <c r="B18" t="b">
@@ -618,7 +618,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>cecibalarin</t>
+          <t>rosalbagg_lopez</t>
         </is>
       </c>
       <c r="B19" t="b">
@@ -628,7 +628,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>karissaginozaaa</t>
+          <t>themanmarquez</t>
         </is>
       </c>
       <c r="B20" t="b">
@@ -638,7 +638,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>_justicecrawford</t>
+          <t>john.roningen</t>
         </is>
       </c>
       <c r="B21" t="b">
@@ -648,7 +648,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>br3ndenm</t>
+          <t>shrey_c21</t>
         </is>
       </c>
       <c r="B22" t="b">
@@ -658,7 +658,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>zhuonan_004</t>
+          <t>raghuvonsh</t>
         </is>
       </c>
       <c r="B23" t="b">
@@ -668,7 +668,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>_davidauguste_</t>
+          <t>ijayoji</t>
         </is>
       </c>
       <c r="B24" t="b">
@@ -678,7 +678,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>jonnyesrael</t>
+          <t>montreuxapieds</t>
         </is>
       </c>
       <c r="B25" t="b">
@@ -688,7 +688,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>daniyarballin</t>
+          <t>lexiicastilloo</t>
         </is>
       </c>
       <c r="B26" t="b">
@@ -698,7 +698,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>kiimlauren</t>
+          <t>ishaninfinitum1</t>
         </is>
       </c>
       <c r="B27" t="b">
@@ -708,7 +708,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>yogiyan2023</t>
+          <t>laspanish_com</t>
         </is>
       </c>
       <c r="B28" t="b">
@@ -718,7 +718,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ninah.009</t>
+          <t>ivanarag11</t>
         </is>
       </c>
       <c r="B29" t="b">
@@ -728,7 +728,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>cliffordthereddawg24</t>
+          <t>noahhmac</t>
         </is>
       </c>
       <c r="B30" t="b">
@@ -738,7 +738,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>zeinahelalyy</t>
+          <t>dael0305</t>
         </is>
       </c>
       <c r="B31" t="b">
@@ -748,7 +748,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>zara_is_zen</t>
+          <t>zz._zay</t>
         </is>
       </c>
       <c r="B32" t="b">
@@ -758,7 +758,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>roshan_like_ocean</t>
+          <t>tatzianadambacher76</t>
         </is>
       </c>
       <c r="B33" t="b">
@@ -768,7 +768,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>nazif.016</t>
+          <t>paularufo</t>
         </is>
       </c>
       <c r="B34" t="b">
@@ -778,7 +778,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>connor_rott06</t>
+          <t>target_nina</t>
         </is>
       </c>
       <c r="B35" t="b">
@@ -788,7 +788,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>livv.elise</t>
+          <t>jess.ica.en</t>
         </is>
       </c>
       <c r="B36" t="b">
@@ -798,7 +798,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>_scarlettgoh</t>
+          <t>yolandazhangg</t>
         </is>
       </c>
       <c r="B37" t="b">
@@ -808,7 +808,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>caseykgtr</t>
+          <t>cameron.linenberg</t>
         </is>
       </c>
       <c r="B38" t="b">
@@ -818,7 +818,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>carsonrdavis</t>
+          <t>reindeer_v</t>
         </is>
       </c>
       <c r="B39" t="b">
@@ -828,7 +828,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>r_rayyyyyy</t>
+          <t>williamwang63</t>
         </is>
       </c>
       <c r="B40" t="b">
@@ -838,7 +838,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>hu_choi03</t>
+          <t>ferlynnechavez_5</t>
         </is>
       </c>
       <c r="B41" t="b">
@@ -848,7 +848,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>banfromcomments</t>
+          <t>anitatycao</t>
         </is>
       </c>
       <c r="B42" t="b">
@@ -858,7 +858,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>__queenbee1</t>
+          <t>isha.aradhya_</t>
         </is>
       </c>
       <c r="B43" t="b">
@@ -868,7 +868,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>jack_breen99</t>
+          <t>thecoopergamble</t>
         </is>
       </c>
       <c r="B44" t="b">
@@ -878,7 +878,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>srt.slime422</t>
+          <t>michael.motronii</t>
         </is>
       </c>
       <c r="B45" t="b">
@@ -888,7 +888,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>colinnlamm</t>
+          <t>matthall9</t>
         </is>
       </c>
       <c r="B46" t="b">
@@ -898,7 +898,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>frenchfriez6</t>
+          <t>_timkwon82</t>
         </is>
       </c>
       <c r="B47" t="b">
@@ -908,7 +908,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>ssofiaboone</t>
+          <t>babubovski</t>
         </is>
       </c>
       <c r="B48" t="b">
@@ -918,7 +918,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>nikolyuhs</t>
+          <t>aryan_ardalann</t>
         </is>
       </c>
       <c r="B49" t="b">
@@ -928,7 +928,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>alexisschoi</t>
+          <t>_d_i_p_z_</t>
         </is>
       </c>
       <c r="B50" t="b">
@@ -938,7 +938,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>valentina.anderson17</t>
+          <t>bencandrew</t>
         </is>
       </c>
       <c r="B51" t="b">
@@ -948,7 +948,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>armyrecruiter_peshraw</t>
+          <t>brucezzzz0731</t>
         </is>
       </c>
       <c r="B52" t="b">
@@ -958,7 +958,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>hyperlunion</t>
+          <t>modelofminnae</t>
         </is>
       </c>
       <c r="B53" t="b">
@@ -968,7 +968,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>dahyniel</t>
+          <t>chrisfengg</t>
         </is>
       </c>
       <c r="B54" t="b">
@@ -978,7 +978,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>arungutkin</t>
+          <t>danielalhernan</t>
         </is>
       </c>
       <c r="B55" t="b">
@@ -988,7 +988,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>rosalba_loop</t>
+          <t>bennavaa</t>
         </is>
       </c>
       <c r="B56" t="b">
@@ -998,7 +998,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>katieeamir</t>
+          <t>mimz2005</t>
         </is>
       </c>
       <c r="B57" t="b">
@@ -1008,7 +1008,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>themanmarquez</t>
+          <t>midnighturbulence</t>
         </is>
       </c>
       <c r="B58" t="b">
@@ -1018,7 +1018,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>m1no1_u</t>
+          <t>katieee_404_not_found</t>
         </is>
       </c>
       <c r="B59" t="b">
@@ -1028,7 +1028,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>rhearichardss</t>
+          <t>gabbi.sky</t>
         </is>
       </c>
       <c r="B60" t="b">
@@ -1038,7 +1038,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>secretofsierra</t>
+          <t>maya.asulin</t>
         </is>
       </c>
       <c r="B61" t="b">
@@ -1048,7 +1048,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>siddharthss22</t>
+          <t>hinborus</t>
         </is>
       </c>
       <c r="B62" t="b">
@@ -1058,7 +1058,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>hh0_david</t>
+          <t>annabel_ow</t>
         </is>
       </c>
       <c r="B63" t="b">
@@ -1068,7 +1068,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>alexandrajewison</t>
+          <t>natashabamdad</t>
         </is>
       </c>
       <c r="B64" t="b">
@@ -1078,7 +1078,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>celebritypoolparty</t>
+          <t>luismirandaaa4</t>
         </is>
       </c>
       <c r="B65" t="b">
@@ -1088,7 +1088,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>thecoopergamble</t>
+          <t>ozeng_22</t>
         </is>
       </c>
       <c r="B66" t="b">
@@ -1098,7 +1098,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>the.golden.arlo</t>
+          <t>keylyn_sam_sophia</t>
         </is>
       </c>
       <c r="B67" t="b">
@@ -1108,7 +1108,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>yeswayy_jose</t>
+          <t>kristenluckhurst</t>
         </is>
       </c>
       <c r="B68" t="b">
@@ -1118,7 +1118,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>arnav_dhingra</t>
+          <t>copadomonica</t>
         </is>
       </c>
       <c r="B69" t="b">
@@ -1128,7 +1128,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>uschillel</t>
+          <t>aarav_sethi</t>
         </is>
       </c>
       <c r="B70" t="b">
@@ -1138,7 +1138,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>ellaquerrey</t>
+          <t>namaribundy2</t>
         </is>
       </c>
       <c r="B71" t="b">
@@ -1148,7 +1148,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>dulcejamiie</t>
+          <t>jakelugo_</t>
         </is>
       </c>
       <c r="B72" t="b">
@@ -1158,7 +1158,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>benwiliams</t>
+          <t>0_0monica</t>
         </is>
       </c>
       <c r="B73" t="b">
@@ -1168,7 +1168,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>__hannahmarchant</t>
+          <t>armyrecruiter_peshraw</t>
         </is>
       </c>
       <c r="B74" t="b">
@@ -1178,7 +1178,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>bonanaa0000</t>
+          <t>livv.elise</t>
         </is>
       </c>
       <c r="B75" t="b">
@@ -1188,7 +1188,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>mayaalewiss</t>
+          <t>kian.hosseini_</t>
         </is>
       </c>
       <c r="B76" t="b">
@@ -1198,7 +1198,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>sophie0915_zhang</t>
+          <t>sparkleladyl</t>
         </is>
       </c>
       <c r="B77" t="b">
@@ -1208,7 +1208,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>klaudia__lu</t>
+          <t>ac.hilger</t>
         </is>
       </c>
       <c r="B78" t="b">
@@ -1218,7 +1218,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>yolandazhangg</t>
+          <t>emiliano_card</t>
         </is>
       </c>
       <c r="B79" t="b">
@@ -1228,7 +1228,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>_aaravgrover</t>
+          <t>stewartxyz</t>
         </is>
       </c>
       <c r="B80" t="b">
@@ -1238,7 +1238,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>shrey_c21</t>
+          <t>katieogorman1</t>
         </is>
       </c>
       <c r="B81" t="b">
@@ -1248,507 +1248,507 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>gregory.guzman.ii</t>
+          <t>uschillel</t>
         </is>
       </c>
       <c r="B82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>hannahwolke_</t>
+          <t>chris_cariddi_</t>
         </is>
       </c>
       <c r="B83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>nicoaraujo243</t>
+          <t>tgchoi1972</t>
         </is>
       </c>
       <c r="B84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>hudsonstimmler</t>
+          <t>micheal_chris303</t>
         </is>
       </c>
       <c r="B85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>babubovski</t>
+          <t>dtr0814</t>
         </is>
       </c>
       <c r="B86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>sasha.t.chi</t>
+          <t>milan.xnu</t>
         </is>
       </c>
       <c r="B87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>kartikpandey.kapie</t>
+          <t>vidhya.ajoy</t>
         </is>
       </c>
       <c r="B88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>wangyifei3852</t>
+          <t>punamagg4180</t>
         </is>
       </c>
       <c r="B89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>gsheehan4</t>
+          <t>ryan_domnic</t>
         </is>
       </c>
       <c r="B90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>ayanmaheshwari.01</t>
+          <t>phineas_fawer</t>
         </is>
       </c>
       <c r="B91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>sharonll4</t>
+          <t>karneycaren3</t>
         </is>
       </c>
       <c r="B92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>lacechristine_shearblissnyc</t>
+          <t>jeanjpark</t>
         </is>
       </c>
       <c r="B93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>crimson_fey</t>
+          <t>shantala_muru</t>
         </is>
       </c>
       <c r="B94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>thekylemcintyre</t>
+          <t>mark_elderkin</t>
         </is>
       </c>
       <c r="B95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>gabbi.sky</t>
+          <t>ifyk_21</t>
         </is>
       </c>
       <c r="B96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>oog_generation</t>
+          <t>sunitadatti</t>
         </is>
       </c>
       <c r="B97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>meribinks</t>
+          <t>xanokei7</t>
         </is>
       </c>
       <c r="B98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>mishafu0089</t>
+          <t>marinahermann_</t>
         </is>
       </c>
       <c r="B99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>isha.aradhya_</t>
+          <t>fightonsierraseniors</t>
         </is>
       </c>
       <c r="B100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>heyitsrew</t>
+          <t>tony_guo5</t>
         </is>
       </c>
       <c r="B101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>slavov.taxii</t>
+          <t>secretofsierra</t>
         </is>
       </c>
       <c r="B102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>laurenrc28</t>
+          <t>rhearichardss</t>
         </is>
       </c>
       <c r="B103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>nico.lleparra</t>
+          <t>coo1leo</t>
         </is>
       </c>
       <c r="B104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>_timkwon82</t>
+          <t>2011helensun</t>
         </is>
       </c>
       <c r="B105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>selena_9.100</t>
+          <t>_joseasosa</t>
         </is>
       </c>
       <c r="B106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>marissa.avilaa</t>
+          <t>christinelooper101</t>
         </is>
       </c>
       <c r="B107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>owenrdoherty</t>
+          <t>ellie.williammss</t>
         </is>
       </c>
       <c r="B108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>j0rdan_ch3ng</t>
+          <t>_vivienc_</t>
         </is>
       </c>
       <c r="B109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>fredfj05</t>
+          <t>lilybopeep24</t>
         </is>
       </c>
       <c r="B110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>vivih414</t>
+          <t>graci_may</t>
         </is>
       </c>
       <c r="B111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>siennagruss</t>
+          <t>suzanne.schofieldd</t>
         </is>
       </c>
       <c r="B112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>landon_ni</t>
+          <t>kj_maxina</t>
         </is>
       </c>
       <c r="B113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>erica_arrt</t>
+          <t>emilllllyyyyy_</t>
         </is>
       </c>
       <c r="B114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>passmethepaneer</t>
+          <t>jack_faust.04</t>
         </is>
       </c>
       <c r="B115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>jorabercrombie9</t>
+          <t>miguelgambalan</t>
         </is>
       </c>
       <c r="B116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>kam_hooper_25</t>
+          <t>ninnie3536</t>
         </is>
       </c>
       <c r="B117" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>hollyc0105</t>
+          <t>abhi._.wadhwa</t>
         </is>
       </c>
       <c r="B118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>will.cotts</t>
+          <t>_scarlettgoh</t>
         </is>
       </c>
       <c r="B119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>dillonlightbody</t>
+          <t>haleyspoden</t>
         </is>
       </c>
       <c r="B120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>remyyyyywayz7</t>
+          <t>mellisafoster23_</t>
         </is>
       </c>
       <c r="B121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>camil_aclark</t>
+          <t>_laney.03_</t>
         </is>
       </c>
       <c r="B122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>annakreedd</t>
+          <t>ayiana.ms</t>
         </is>
       </c>
       <c r="B123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>philipcamuto</t>
+          <t>shann0nkarr</t>
         </is>
       </c>
       <c r="B124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>that_on3_angel</t>
+          <t>_abby_moreno</t>
         </is>
       </c>
       <c r="B125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>christinelooper101</t>
+          <t>karrreny_zh</t>
         </is>
       </c>
       <c r="B126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>nicholasarya6</t>
+          <t>mjnajmom74</t>
         </is>
       </c>
       <c r="B127" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>danielpanusa</t>
+          <t>jegudiel_24</t>
         </is>
       </c>
       <c r="B128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>noah.teves4</t>
+          <t>nila.shasudha</t>
         </is>
       </c>
       <c r="B129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>stephenjhuntiv</t>
+          <t>adanurbasar</t>
         </is>
       </c>
       <c r="B130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>yogabbygabby_l</t>
+          <t>coylongitude</t>
         </is>
       </c>
       <c r="B131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>jialyu0928</t>
+          <t>nazif.016</t>
         </is>
       </c>
       <c r="B132" t="b">
@@ -1758,7 +1758,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>emiliano_card</t>
+          <t>johnmarcbautista</t>
         </is>
       </c>
       <c r="B133" t="b">
@@ -1768,7 +1768,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>l.spellbound.l</t>
+          <t>josephabellojr</t>
         </is>
       </c>
       <c r="B134" t="b">
@@ -1778,7 +1778,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>ximenaancerr</t>
+          <t>dylan.mandel_28</t>
         </is>
       </c>
       <c r="B135" t="b">
@@ -1788,7 +1788,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>guzman_ale9</t>
+          <t>priyaloran</t>
         </is>
       </c>
       <c r="B136" t="b">
@@ -1798,7 +1798,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>fightonsierra</t>
+          <t>delaneyy.walsh</t>
         </is>
       </c>
       <c r="B137" t="b">
@@ -1808,7 +1808,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>sophiasilvaaa</t>
+          <t>stephenjhuntiv</t>
         </is>
       </c>
       <c r="B138" t="b">
@@ -1818,7 +1818,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>siepstein</t>
+          <t>sharonll4</t>
         </is>
       </c>
       <c r="B139" t="b">
@@ -1828,7 +1828,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>jirehbermoy</t>
+          <t>tatum.plessas</t>
         </is>
       </c>
       <c r="B140" t="b">
@@ -1838,7 +1838,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>nickcyrusa</t>
+          <t>jolyner69</t>
         </is>
       </c>
       <c r="B141" t="b">
@@ -1848,7 +1848,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>ryan_domnic</t>
+          <t>imgraciee__</t>
         </is>
       </c>
       <c r="B142" t="b">
@@ -1858,7 +1858,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>douglasbangura</t>
+          <t>will.shehan</t>
         </is>
       </c>
       <c r="B143" t="b">
@@ -1868,7 +1868,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>nemo.g_</t>
+          <t>quiet.fest</t>
         </is>
       </c>
       <c r="B144" t="b">
@@ -1878,7 +1878,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>3025.mansion</t>
+          <t>laureenmwong</t>
         </is>
       </c>
       <c r="B145" t="b">
@@ -1888,7 +1888,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>alexlewandrowski</t>
+          <t>joshie_3005</t>
         </is>
       </c>
       <c r="B146" t="b">
@@ -1898,7 +1898,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>tommy.strauss_</t>
+          <t>vishakha.singhania_</t>
         </is>
       </c>
       <c r="B147" t="b">
@@ -1908,7 +1908,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>juliazzz_doannn_</t>
+          <t>allie.arcaro</t>
         </is>
       </c>
       <c r="B148" t="b">
@@ -1918,7 +1918,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>myles.lathan</t>
+          <t>nemo.g_</t>
         </is>
       </c>
       <c r="B149" t="b">
@@ -1928,7 +1928,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>gabriellegonzzz</t>
+          <t>adam_pata</t>
         </is>
       </c>
       <c r="B150" t="b">
@@ -1938,7 +1938,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>ferlynnechavez_5</t>
+          <t>selinamejia_</t>
         </is>
       </c>
       <c r="B151" t="b">
@@ -1948,7 +1948,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>nerilandi_</t>
+          <t>dhruva567</t>
         </is>
       </c>
       <c r="B152" t="b">
@@ -1958,7 +1958,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>henry_deckard</t>
+          <t>parisz71</t>
         </is>
       </c>
       <c r="B153" t="b">
@@ -1968,7 +1968,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>kalanihill98</t>
+          <t>david___kim_</t>
         </is>
       </c>
       <c r="B154" t="b">
@@ -1978,7 +1978,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>jacquedoane</t>
+          <t>waynemandel</t>
         </is>
       </c>
       <c r="B155" t="b">
@@ -1988,7 +1988,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>sam.ing_16</t>
+          <t>xihiujinilixjilu</t>
         </is>
       </c>
       <c r="B156" t="b">
@@ -1998,7 +1998,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>owenpeastman</t>
+          <t>nadiarayyn</t>
         </is>
       </c>
       <c r="B157" t="b">
@@ -2008,7 +2008,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>evan_sauer676</t>
+          <t>fati.sehar</t>
         </is>
       </c>
       <c r="B158" t="b">
@@ -2018,7 +2018,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>chstudebaker100__18</t>
+          <t>mufnas_muneer_</t>
         </is>
       </c>
       <c r="B159" t="b">
@@ -2028,7 +2028,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>_duncan.b20</t>
+          <t>1971.tas</t>
         </is>
       </c>
       <c r="B160" t="b">
@@ -2038,7 +2038,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>striveusc</t>
+          <t>the.golden.arlo</t>
         </is>
       </c>
       <c r="B161" t="b">
@@ -2048,7 +2048,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>imgraciee__</t>
+          <t>donovanmkdavis</t>
         </is>
       </c>
       <c r="B162" t="b">
@@ -2058,7 +2058,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>pame_lucasss</t>
+          <t>dballin27</t>
         </is>
       </c>
       <c r="B163" t="b">
@@ -2068,7 +2068,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>_joseasosa</t>
+          <t>sam.benson_</t>
         </is>
       </c>
       <c r="B164" t="b">
@@ -2078,7 +2078,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>bonanaa7777</t>
+          <t>mfyoeputj</t>
         </is>
       </c>
       <c r="B165" t="b">
@@ -2088,7 +2088,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>rh.r21</t>
+          <t>bella._allen</t>
         </is>
       </c>
       <c r="B166" t="b">
@@ -2098,7 +2098,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>janafladd</t>
+          <t>_duncan.b20</t>
         </is>
       </c>
       <c r="B167" t="b">
@@ -2108,7 +2108,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>mollymorouse</t>
+          <t>quienesleon</t>
         </is>
       </c>
       <c r="B168" t="b">
@@ -2118,7 +2118,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>mia.carpenter</t>
+          <t>23jumpchi</t>
         </is>
       </c>
       <c r="B169" t="b">
@@ -2128,7 +2128,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>margaret.luwena</t>
+          <t>luka_w10</t>
         </is>
       </c>
       <c r="B170" t="b">
@@ -2138,7 +2138,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>rylanbohnett</t>
+          <t>sharim223</t>
         </is>
       </c>
       <c r="B171" t="b">
@@ -2148,7 +2148,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>_mahshid_k</t>
+          <t>_wi.eee.ng_</t>
         </is>
       </c>
       <c r="B172" t="b">
@@ -2158,7 +2158,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>nickthechickflick</t>
+          <t>david.yz.ding</t>
         </is>
       </c>
       <c r="B173" t="b">
@@ -2168,7 +2168,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>where2beusc</t>
+          <t>fedebecerrac</t>
         </is>
       </c>
       <c r="B174" t="b">
@@ -2178,7 +2178,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>fattyfatfat89</t>
+          <t>remyyyyywayz7</t>
         </is>
       </c>
       <c r="B175" t="b">
@@ -2188,7 +2188,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>s_torres30</t>
+          <t>_ryan_matthews</t>
         </is>
       </c>
       <c r="B176" t="b">
@@ -2198,7 +2198,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>matt.esneault</t>
+          <t>m.williams12</t>
         </is>
       </c>
       <c r="B177" t="b">
@@ -2208,7 +2208,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>mufnas_muneer_</t>
+          <t>alice.skim</t>
         </is>
       </c>
       <c r="B178" t="b">
@@ -2218,7 +2218,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>bornfit585</t>
+          <t>ricca.y</t>
         </is>
       </c>
       <c r="B179" t="b">
@@ -2228,7 +2228,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>mel1ssa.333</t>
+          <t>aarush_mal</t>
         </is>
       </c>
       <c r="B180" t="b">
@@ -2238,7 +2238,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>joanne.zhuo1</t>
+          <t>amanda.emily9</t>
         </is>
       </c>
       <c r="B181" t="b">
@@ -2248,7 +2248,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>celiamvphee</t>
+          <t>ximenaancerr</t>
         </is>
       </c>
       <c r="B182" t="b">
@@ -2258,7 +2258,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>_arnavgoel</t>
+          <t>83riprecious</t>
         </is>
       </c>
       <c r="B183" t="b">
@@ -2268,7 +2268,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>cynthiaa.chan</t>
+          <t>selenacossio</t>
         </is>
       </c>
       <c r="B184" t="b">
@@ -2278,7 +2278,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>bjmoonn</t>
+          <t>jayden.k1m</t>
         </is>
       </c>
       <c r="B185" t="b">
@@ -2288,7 +2288,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>hurstella_contemporary_art</t>
+          <t>peggyflorence70</t>
         </is>
       </c>
       <c r="B186" t="b">
@@ -2298,7 +2298,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>kian.hosseini_</t>
+          <t>jasm._nekoo</t>
         </is>
       </c>
       <c r="B187" t="b">
@@ -2308,7 +2308,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>bella._allen</t>
+          <t>chloe_mury</t>
         </is>
       </c>
       <c r="B188" t="b">
@@ -2318,7 +2318,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>ryan.gach</t>
+          <t>emma_larcom</t>
         </is>
       </c>
       <c r="B189" t="b">
@@ -2328,7 +2328,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>katieogorman1</t>
+          <t>_arnavgoel</t>
         </is>
       </c>
       <c r="B190" t="b">
@@ -2338,7 +2338,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>k.ngeam</t>
+          <t>jasonnbrown_</t>
         </is>
       </c>
       <c r="B191" t="b">
@@ -2348,7 +2348,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>lillianemmaa</t>
+          <t>mariagraceschneider</t>
         </is>
       </c>
       <c r="B192" t="b">
@@ -2358,7 +2358,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>cuellartingz</t>
+          <t>michaela.eleanne</t>
         </is>
       </c>
       <c r="B193" t="b">
@@ -2368,7 +2368,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>tjacoyne_</t>
+          <t>insia_dahod11</t>
         </is>
       </c>
       <c r="B194" t="b">
@@ -2378,7 +2378,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>jacob.mandelbaum</t>
+          <t>yuvikapoddar</t>
         </is>
       </c>
       <c r="B195" t="b">
@@ -2388,7 +2388,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>ariannalume</t>
+          <t>skylarhjohnson</t>
         </is>
       </c>
       <c r="B196" t="b">
@@ -2398,7 +2398,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>11xtristanposner</t>
+          <t>scottrykert</t>
         </is>
       </c>
       <c r="B197" t="b">
@@ -2408,7 +2408,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>jennyyyyy121</t>
+          <t>user67777788888</t>
         </is>
       </c>
       <c r="B198" t="b">
@@ -2418,7 +2418,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>_nateguerrero</t>
+          <t>nathancchang</t>
         </is>
       </c>
       <c r="B199" t="b">
@@ -2428,7 +2428,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>emilllllyyyyy_</t>
+          <t>armida.munoz.3</t>
         </is>
       </c>
       <c r="B200" t="b">
@@ -2438,7 +2438,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>zz._zay</t>
+          <t>hh0_david</t>
         </is>
       </c>
       <c r="B201" t="b">
@@ -2448,7 +2448,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>emilysuun</t>
+          <t>charlie.vegac</t>
         </is>
       </c>
       <c r="B202" t="b">
@@ -2458,7 +2458,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>kimonsplash</t>
+          <t>will.vanya</t>
         </is>
       </c>
       <c r="B203" t="b">
@@ -2468,7 +2468,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>becca.losey</t>
+          <t>roshan_like_ocean</t>
         </is>
       </c>
       <c r="B204" t="b">
@@ -2478,7 +2478,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>vishnu_sk05</t>
+          <t>colinnscottt</t>
         </is>
       </c>
       <c r="B205" t="b">
@@ -2488,7 +2488,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>sansalorelei</t>
+          <t>jialyu0928</t>
         </is>
       </c>
       <c r="B206" t="b">
@@ -2498,7 +2498,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>bennavaa</t>
+          <t>_derrick.trann_</t>
         </is>
       </c>
       <c r="B207" t="b">
@@ -2508,7 +2508,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>brownndaniellee</t>
+          <t>jens_juggle</t>
         </is>
       </c>
       <c r="B208" t="b">
@@ -2518,7 +2518,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>___luislisboa</t>
+          <t>alerivera_.a</t>
         </is>
       </c>
       <c r="B209" t="b">
@@ -2528,7 +2528,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>billiam._</t>
+          <t>krperkins2</t>
         </is>
       </c>
       <c r="B210" t="b">
@@ -2538,7 +2538,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>somerandomchiu</t>
+          <t>nerilandi_</t>
         </is>
       </c>
       <c r="B211" t="b">
@@ -2548,7 +2548,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>diana_puert20</t>
+          <t>blake.better</t>
         </is>
       </c>
       <c r="B212" t="b">
@@ -2558,7 +2558,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>ligiarosser</t>
+          <t>estarddd</t>
         </is>
       </c>
       <c r="B213" t="b">
@@ -2568,7 +2568,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>mariacranny</t>
+          <t>liv.bynum</t>
         </is>
       </c>
       <c r="B214" t="b">
@@ -2578,7 +2578,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>tristaan3</t>
+          <t>brooklinbromberg</t>
         </is>
       </c>
       <c r="B215" t="b">
@@ -2588,7 +2588,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>bradyjjack</t>
+          <t>seattlejulie</t>
         </is>
       </c>
       <c r="B216" t="b">
@@ -2598,7 +2598,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>sarahwoodutter</t>
+          <t>sophiamart1ns</t>
         </is>
       </c>
       <c r="B217" t="b">
@@ -2608,7 +2608,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>analicia.scoggins</t>
+          <t>hotgirlfrnd</t>
         </is>
       </c>
       <c r="B218" t="b">
@@ -2618,7 +2618,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>chudnaya111</t>
+          <t>emmanuelkelvin8420</t>
         </is>
       </c>
       <c r="B219" t="b">
@@ -2628,7 +2628,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>kristenluckhurst</t>
+          <t>nick_arjoma</t>
         </is>
       </c>
       <c r="B220" t="b">
@@ -2638,7 +2638,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>annabel_ow</t>
+          <t>sunjum.sanghari</t>
         </is>
       </c>
       <c r="B221" t="b">
@@ -2648,7 +2648,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>carolinekelliny</t>
+          <t>ritachehe</t>
         </is>
       </c>
       <c r="B222" t="b">
@@ -2658,7 +2658,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>avni.hulyalkar</t>
+          <t>clementine.spieser</t>
         </is>
       </c>
       <c r="B223" t="b">
@@ -2668,7 +2668,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>florinaandsierra</t>
+          <t>betsyniksefat</t>
         </is>
       </c>
       <c r="B224" t="b">
@@ -2678,7 +2678,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>ced.arr.ose</t>
+          <t>alex.i.harris</t>
         </is>
       </c>
       <c r="B225" t="b">
@@ -2688,7 +2688,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>jul1awarren</t>
+          <t>mahr.k21</t>
         </is>
       </c>
       <c r="B226" t="b">
@@ -2698,7 +2698,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>raghuvonsh</t>
+          <t>mihikamishra</t>
         </is>
       </c>
       <c r="B227" t="b">
@@ -2708,7 +2708,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>dnl_wng</t>
+          <t>_utopia.me</t>
         </is>
       </c>
       <c r="B228" t="b">
@@ -2718,7 +2718,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>aashi_chandna</t>
+          <t>alison12452</t>
         </is>
       </c>
       <c r="B229" t="b">
@@ -2728,7 +2728,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>jack.beckerman</t>
+          <t>katieajames_</t>
         </is>
       </c>
       <c r="B230" t="b">
@@ -2738,7 +2738,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>willll.g</t>
+          <t>heyitsrew</t>
         </is>
       </c>
       <c r="B231" t="b">
@@ -2748,7 +2748,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>gabriel.james.johnson</t>
+          <t>omarservacio</t>
         </is>
       </c>
       <c r="B232" t="b">
@@ -2758,7 +2758,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>hjia_61</t>
+          <t>phyljdav</t>
         </is>
       </c>
       <c r="B233" t="b">
@@ -2768,7 +2768,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>emmydugi</t>
+          <t>micheleton26</t>
         </is>
       </c>
       <c r="B234" t="b">
@@ -2778,7 +2778,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>jaden_moore2</t>
+          <t>kalanihill98</t>
         </is>
       </c>
       <c r="B235" t="b">
@@ -2788,7 +2788,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>goducksdad</t>
+          <t>sid.srikanth1</t>
         </is>
       </c>
       <c r="B236" t="b">
@@ -2798,7 +2798,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>uscconcerts</t>
+          <t>_vanegonzalez__</t>
         </is>
       </c>
       <c r="B237" t="b">
@@ -2808,7 +2808,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>alliehonbo</t>
+          <t>siddharthss22</t>
         </is>
       </c>
       <c r="B238" t="b">
@@ -2818,7 +2818,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>delaneyy.walsh</t>
+          <t>leslie_c0774</t>
         </is>
       </c>
       <c r="B239" t="b">
@@ -2828,7 +2828,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>_lilapowell</t>
+          <t>lily_.pg</t>
         </is>
       </c>
       <c r="B240" t="b">
@@ -2838,7 +2838,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>zeshan.ali.khan</t>
+          <t>oliv.iakatsuraa</t>
         </is>
       </c>
       <c r="B241" t="b">
@@ -2848,7 +2848,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>elijahrrock</t>
+          <t>rivatulpule</t>
         </is>
       </c>
       <c r="B242" t="b">
@@ -2858,7 +2858,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>_avamiranda</t>
+          <t>srfitgal</t>
         </is>
       </c>
       <c r="B243" t="b">
@@ -2868,7 +2868,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>rqyahneudeck</t>
+          <t>justin_sunwoo</t>
         </is>
       </c>
       <c r="B244" t="b">
@@ -2878,7 +2878,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>darius.mahjoob</t>
+          <t>connor.plunkett</t>
         </is>
       </c>
       <c r="B245" t="b">
@@ -2888,7 +2888,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>nick.odani</t>
+          <t>ligiarosser</t>
         </is>
       </c>
       <c r="B246" t="b">
@@ -2898,7 +2898,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>jhanaabrina</t>
+          <t>sejalkaravadia</t>
         </is>
       </c>
       <c r="B247" t="b">
@@ -2908,7 +2908,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>tyler_pham__</t>
+          <t>gingeruuuuuu</t>
         </is>
       </c>
       <c r="B248" t="b">
@@ -2918,7 +2918,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>donovanmkdavis</t>
+          <t>romeoanders</t>
         </is>
       </c>
       <c r="B249" t="b">
@@ -2928,7 +2928,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>michaelmarrtinez</t>
+          <t>nickazizian_</t>
         </is>
       </c>
       <c r="B250" t="b">
@@ -2938,7 +2938,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>madeline.diemer</t>
+          <t>ch3n.ji3</t>
         </is>
       </c>
       <c r="B251" t="b">
@@ -2948,7 +2948,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>mayra.riosss</t>
+          <t>piper.mahoney</t>
         </is>
       </c>
       <c r="B252" t="b">
@@ -2958,7 +2958,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>john.roningen</t>
+          <t>erica_arrt</t>
         </is>
       </c>
       <c r="B253" t="b">
@@ -2968,7 +2968,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>hkim7614</t>
+          <t>s_torres30</t>
         </is>
       </c>
       <c r="B254" t="b">
@@ -2978,7 +2978,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>yeah__rod</t>
+          <t>jogi1a</t>
         </is>
       </c>
       <c r="B255" t="b">
@@ -2988,7 +2988,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>keira_nrl</t>
+          <t>yuu_ki_1990</t>
         </is>
       </c>
       <c r="B256" t="b">
@@ -2998,7 +2998,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>leighannwebster</t>
+          <t>zachj_smith</t>
         </is>
       </c>
       <c r="B257" t="b">
@@ -3008,7 +3008,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>madeline.stephen</t>
+          <t>m1no1_u</t>
         </is>
       </c>
       <c r="B258" t="b">
@@ -3018,7 +3018,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>_jeffreyang_</t>
+          <t>hastag_wow</t>
         </is>
       </c>
       <c r="B259" t="b">
@@ -3028,7 +3028,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>lpetro</t>
+          <t>jennyyay_yjn</t>
         </is>
       </c>
       <c r="B260" t="b">
@@ -3038,7 +3038,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>sam.shindi</t>
+          <t>pame_lucasss</t>
         </is>
       </c>
       <c r="B261" t="b">
@@ -3048,7 +3048,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>grayson_dutch</t>
+          <t>sofia_mancing</t>
         </is>
       </c>
       <c r="B262" t="b">
@@ -3058,7 +3058,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>siena_gura</t>
+          <t>javygugu</t>
         </is>
       </c>
       <c r="B263" t="b">
@@ -3068,7 +3068,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>ivanarag11</t>
+          <t>duncancarswelll</t>
         </is>
       </c>
       <c r="B264" t="b">
@@ -3078,7 +3078,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>alerivera_.a</t>
+          <t>siepstein</t>
         </is>
       </c>
       <c r="B265" t="b">
@@ -3088,7 +3088,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>ellajanedougherty</t>
+          <t>where2beusc</t>
         </is>
       </c>
       <c r="B266" t="b">
@@ -3098,7 +3098,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>aparadise72</t>
+          <t>janicehsieh_</t>
         </is>
       </c>
       <c r="B267" t="b">
@@ -3108,7 +3108,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>evanozgener</t>
+          <t>baobo_929</t>
         </is>
       </c>
       <c r="B268" t="b">
@@ -3118,7 +3118,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>joshie_3005</t>
+          <t>tommy.strauss_</t>
         </is>
       </c>
       <c r="B269" t="b">
@@ -3128,7 +3128,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>scottrykert</t>
+          <t>soph913_</t>
         </is>
       </c>
       <c r="B270" t="b">
@@ -3138,7 +3138,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>zoewitherss</t>
+          <t>jonnyesrael</t>
         </is>
       </c>
       <c r="B271" t="b">
@@ -3148,7 +3148,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>_d_i_p_z_</t>
+          <t>zeshan.ali.khan</t>
         </is>
       </c>
       <c r="B272" t="b">
@@ -3158,7 +3158,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>midnighturbulence</t>
+          <t>reesey.nola</t>
         </is>
       </c>
       <c r="B273" t="b">
@@ -3168,7 +3168,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>amyrisimone</t>
+          <t>2loca4loko</t>
         </is>
       </c>
       <c r="B274" t="b">
@@ -3178,7 +3178,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>reindeer_v</t>
+          <t>mandviwala12</t>
         </is>
       </c>
       <c r="B275" t="b">
@@ -3188,7 +3188,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>montreuxapieds</t>
+          <t>thursdayboy2005</t>
         </is>
       </c>
       <c r="B276" t="b">
@@ -3198,7 +3198,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>madiiifordd</t>
+          <t>marisabelladiaz</t>
         </is>
       </c>
       <c r="B277" t="b">
@@ -3208,7 +3208,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>thompson.phan</t>
+          <t>theowchiu</t>
         </is>
       </c>
       <c r="B278" t="b">
@@ -3218,7 +3218,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>jogi1a</t>
+          <t>drewdrewdrewscott</t>
         </is>
       </c>
       <c r="B279" t="b">
@@ -3228,7 +3228,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>katieajames_</t>
+          <t>lisa_abyss</t>
         </is>
       </c>
       <c r="B280" t="b">
@@ -3238,7 +3238,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>debraerdene</t>
+          <t>dillontadeo</t>
         </is>
       </c>
       <c r="B281" t="b">
@@ -3248,7 +3248,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>ishaninfinitum1</t>
+          <t>hyperlunion</t>
         </is>
       </c>
       <c r="B282" t="b">
@@ -3258,7 +3258,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>ellie.williammss</t>
+          <t>anjumatreja</t>
         </is>
       </c>
       <c r="B283" t="b">
@@ -3268,7 +3268,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>_evanrivera_</t>
+          <t>surabinama</t>
         </is>
       </c>
       <c r="B284" t="b">
@@ -3278,7 +3278,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>yangchen.lham0</t>
+          <t>ashvin.arora</t>
         </is>
       </c>
       <c r="B285" t="b">
@@ -3288,7 +3288,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>justin_sunwoo</t>
+          <t>g_1989_pe</t>
         </is>
       </c>
       <c r="B286" t="b">
@@ -3298,7 +3298,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>_wi.eee.ng_</t>
+          <t>chery.mima</t>
         </is>
       </c>
       <c r="B287" t="b">
@@ -3308,7 +3308,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>_mattmazza</t>
+          <t>myles.lathan</t>
         </is>
       </c>
       <c r="B288" t="b">
@@ -3318,7 +3318,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>mam.jaaa</t>
+          <t>mariia.bess</t>
         </is>
       </c>
       <c r="B289" t="b">
@@ -3328,7 +3328,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>vernon.edler</t>
+          <t>aurorabbdty</t>
         </is>
       </c>
       <c r="B290" t="b">
@@ -3338,7 +3338,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>_derrick.trann_</t>
+          <t>katecollinn</t>
         </is>
       </c>
       <c r="B291" t="b">
@@ -3348,7 +3348,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>emily.nlsnn</t>
+          <t>jonny.ledesma</t>
         </is>
       </c>
       <c r="B292" t="b">
@@ -3358,7 +3358,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>romeoanders</t>
+          <t>ethan_ae</t>
         </is>
       </c>
       <c r="B293" t="b">
@@ -3368,7 +3368,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>anniecshields</t>
+          <t>thisisvictoriazx_vl</t>
         </is>
       </c>
       <c r="B294" t="b">
@@ -3378,7 +3378,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>acemcgerrity</t>
+          <t>jack._prez</t>
         </is>
       </c>
       <c r="B295" t="b">
@@ -3388,7 +3388,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>surabinama</t>
+          <t>adr.ian_ml</t>
         </is>
       </c>
       <c r="B296" t="b">
@@ -3398,7 +3398,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>rhianna.nguyen16</t>
+          <t>issazuo</t>
         </is>
       </c>
       <c r="B297" t="b">
@@ -3408,7 +3408,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>brendanzbanek</t>
+          <t>laceyhfmn</t>
         </is>
       </c>
       <c r="B298" t="b">
@@ -3418,7 +3418,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>_jaselising</t>
+          <t>tyler_pham__</t>
         </is>
       </c>
       <c r="B299" t="b">
@@ -3428,7 +3428,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>keilahh.stephh</t>
+          <t>hamza_chhapra</t>
         </is>
       </c>
       <c r="B300" t="b">
@@ -3438,10 +3438,400 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>will.vanya</t>
+          <t>maxim.wu</t>
         </is>
       </c>
       <c r="B301" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>caleb.oua</t>
+        </is>
+      </c>
+      <c r="B302" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>jakebunting13</t>
+        </is>
+      </c>
+      <c r="B303" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>l.spellbound.l</t>
+        </is>
+      </c>
+      <c r="B304" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>vaanyagilhotra</t>
+        </is>
+      </c>
+      <c r="B305" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>juliecshaw</t>
+        </is>
+      </c>
+      <c r="B306" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>sofi_vigevaaa</t>
+        </is>
+      </c>
+      <c r="B307" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>gsheehan4</t>
+        </is>
+      </c>
+      <c r="B308" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>sophianovian</t>
+        </is>
+      </c>
+      <c r="B309" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>m_21murali</t>
+        </is>
+      </c>
+      <c r="B310" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>meha01_</t>
+        </is>
+      </c>
+      <c r="B311" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>emilylam121</t>
+        </is>
+      </c>
+      <c r="B312" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>_just_joel__</t>
+        </is>
+      </c>
+      <c r="B313" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>annakreedd</t>
+        </is>
+      </c>
+      <c r="B314" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>mhills0705</t>
+        </is>
+      </c>
+      <c r="B315" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>sanayu</t>
+        </is>
+      </c>
+      <c r="B316" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>rylanbohnett</t>
+        </is>
+      </c>
+      <c r="B317" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>noel_blackhole</t>
+        </is>
+      </c>
+      <c r="B318" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>mel1ssa.333</t>
+        </is>
+      </c>
+      <c r="B319" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>chris_taylor05</t>
+        </is>
+      </c>
+      <c r="B320" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>tyyybo</t>
+        </is>
+      </c>
+      <c r="B321" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>iamcharlotteee210</t>
+        </is>
+      </c>
+      <c r="B322" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>yumenlanxin</t>
+        </is>
+      </c>
+      <c r="B323" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>_avaleonard</t>
+        </is>
+      </c>
+      <c r="B324" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>robynne.shardonnay</t>
+        </is>
+      </c>
+      <c r="B325" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>shi.living</t>
+        </is>
+      </c>
+      <c r="B326" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>zanee.yy</t>
+        </is>
+      </c>
+      <c r="B327" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>zoewitherss</t>
+        </is>
+      </c>
+      <c r="B328" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>a.donaldddd</t>
+        </is>
+      </c>
+      <c r="B329" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>67mustang_baker32</t>
+        </is>
+      </c>
+      <c r="B330" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>juliazzz_doannn_</t>
+        </is>
+      </c>
+      <c r="B331" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>chuckclark_04</t>
+        </is>
+      </c>
+      <c r="B332" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>rlarjsdn04</t>
+        </is>
+      </c>
+      <c r="B333" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>wuyexiiiii</t>
+        </is>
+      </c>
+      <c r="B334" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>_nateguerrero</t>
+        </is>
+      </c>
+      <c r="B335" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>amzkalla</t>
+        </is>
+      </c>
+      <c r="B336" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>k.ngeam</t>
+        </is>
+      </c>
+      <c r="B337" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>nourisheibani</t>
+        </is>
+      </c>
+      <c r="B338" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>emily.nlsnn</t>
+        </is>
+      </c>
+      <c r="B339" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>afols44</t>
+        </is>
+      </c>
+      <c r="B340" t="b">
         <v>0</v>
       </c>
     </row>
